--- a/Курсовая работа.xlsx
+++ b/Курсовая работа.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="350">
   <si>
     <t>1.1 Курсовая работа</t>
   </si>
@@ -1474,19 +1474,44 @@
     <t>см. homepage.php</t>
   </si>
   <si>
-    <t>На странице редактирования добавить кнопку "Удалить".</t>
-  </si>
-  <si>
     <t>см. admin-cms.php</t>
   </si>
   <si>
-    <t>Список + переход на страницу редактировния.</t>
-  </si>
-  <si>
     <t>8.3.1</t>
   </si>
   <si>
     <t>8.3.2</t>
+  </si>
+  <si>
+    <t>Список + переход на страницу редактирования.</t>
+  </si>
+  <si>
+    <t>8.3.3</t>
+  </si>
+  <si>
+    <t>На странице редактирования выгружать данные редактируемой статьи</t>
+  </si>
+  <si>
+    <r>
+      <t>На странице редактирования добавить кнопку "Удалить"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> + форма</t>
+    </r>
+  </si>
+  <si>
+    <t>выгрузка методов</t>
+  </si>
+  <si>
+    <t>8.3.3.1</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1522,7 @@
     <numFmt numFmtId="164" formatCode="[$-419]dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1700,8 +1725,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1804,6 +1837,12 @@
         <bgColor rgb="FFC3D69B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -1884,14 +1923,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2277,6 +2310,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2656,8 +2698,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="110.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
@@ -2665,70 +2707,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>44553</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
@@ -2736,7 +2778,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
@@ -2744,7 +2786,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
@@ -2752,379 +2794,379 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
+      <c r="B35" s="23"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="126" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
+      <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="23" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="28" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
+      <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B70" s="7"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3136,2131 +3178,2157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AMK206"/>
+  <dimension ref="A2:AMK207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A165" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="96.85546875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="32" customWidth="1"/>
-    <col min="6" max="1025" width="8.5703125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="96.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="30" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="33" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="33" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="33"/>
     </row>
     <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
-    </row>
-    <row r="12" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
+    </row>
+    <row r="12" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="39">
         <v>1</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44">
+      <c r="C15" s="41"/>
+      <c r="D15" s="42">
         <v>44553</v>
       </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="44"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="47">
         <v>44572</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="49"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="30" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="30" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="30" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="30" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="49"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+    <row r="25" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="47">
         <v>44572</v>
       </c>
-      <c r="E26" s="56"/>
+      <c r="E26" s="54"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="49"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="49"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="47">
         <v>44572</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="E29" s="43"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="47">
         <v>44573</v>
       </c>
-      <c r="E30" s="45"/>
+      <c r="E30" s="43"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="47">
         <v>44572</v>
       </c>
-      <c r="E31" s="45"/>
-    </row>
-    <row r="32" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="E31" s="43"/>
+    </row>
+    <row r="32" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="56" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="49">
+      <c r="D35" s="47">
         <v>44573</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="33" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="49">
+      <c r="D38" s="47">
         <v>44573</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="49">
+      <c r="D39" s="47">
         <v>44585</v>
       </c>
-      <c r="E39" s="49">
+      <c r="E39" s="47">
         <v>44586</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="47">
         <v>44585</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="47">
         <v>44586</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="47">
         <v>44587</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="47">
         <v>44591</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="35" t="s">
+      <c r="A42" s="31"/>
+      <c r="B42" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="47">
         <v>44591</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="47">
         <v>44591</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="33"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="49">
+      <c r="D44" s="47">
         <v>44592</v>
       </c>
-      <c r="E44" s="49">
+      <c r="E44" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="49">
+      <c r="E45" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="49">
+      <c r="E46" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="46" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="49">
+      <c r="D47" s="47">
         <v>44592</v>
       </c>
-      <c r="E47" s="49">
+      <c r="E47" s="47">
         <v>44592</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="46" t="s">
+      <c r="A48" s="31"/>
+      <c r="B48" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="47">
         <v>44592</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="47">
         <v>44592</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="46" t="s">
+      <c r="A49" s="31"/>
+      <c r="B49" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D49" s="47">
         <v>44592</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="47">
         <v>44592</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="46" t="s">
+      <c r="A50" s="31"/>
+      <c r="B50" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="49">
+      <c r="D50" s="47">
         <v>44592</v>
       </c>
-      <c r="E50" s="49">
+      <c r="E50" s="47">
         <v>44592</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="49">
+      <c r="D51" s="47">
         <v>44647</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E51" s="47">
         <v>44649</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="46"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="44"/>
     </row>
     <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="62" t="s">
+      <c r="A53" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="49">
+      <c r="D53" s="47">
         <v>44572</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="47">
         <v>44572</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="46"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="44"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="46"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="44"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="46"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="44"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="44" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="44" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="65" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="66" t="s">
+      <c r="A64" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="44" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
+    <row r="65" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="68">
+      <c r="A67" s="66">
         <v>2</v>
       </c>
-      <c r="B67" s="69" t="s">
+      <c r="B67" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="70">
+      <c r="D67" s="68">
         <v>44595</v>
       </c>
-      <c r="E67" s="44"/>
+      <c r="E67" s="42"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="49">
+      <c r="C68" s="70"/>
+      <c r="D68" s="47">
         <v>44604</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="47">
         <v>44604</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="36"/>
+      <c r="B69" s="34"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B70" s="71" t="s">
+      <c r="B70" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="49">
+      <c r="C70" s="70"/>
+      <c r="D70" s="47">
         <v>44595</v>
       </c>
-      <c r="E70" s="49">
+      <c r="E70" s="47">
         <v>44599</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="71" t="s">
+      <c r="B71" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="72"/>
-      <c r="D71" s="49">
+      <c r="C71" s="70"/>
+      <c r="D71" s="47">
         <v>44595</v>
       </c>
-      <c r="E71" s="49">
+      <c r="E71" s="47">
         <v>44595</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="36"/>
+      <c r="B72" s="34"/>
     </row>
     <row r="73" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="B73" s="71" t="s">
+      <c r="B73" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="D73" s="75">
+      <c r="D73" s="73">
         <v>44607</v>
       </c>
-      <c r="E73" s="75">
+      <c r="E73" s="73">
         <v>44607</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="D75" s="75">
+      <c r="D75" s="73">
         <v>44607</v>
       </c>
-      <c r="E75" s="75">
+      <c r="E75" s="73">
         <v>44607</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="73" t="s">
+      <c r="A76" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="72"/>
-      <c r="D76" s="75">
+      <c r="C76" s="70"/>
+      <c r="D76" s="73">
         <v>44606</v>
       </c>
-      <c r="E76" s="75">
+      <c r="E76" s="73">
         <v>44607</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="76" t="s">
+      <c r="A77" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="77" t="s">
+      <c r="B77" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="78" t="s">
+      <c r="C77" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="D77" s="79">
+      <c r="D77" s="77">
         <v>44607</v>
       </c>
-      <c r="E77" s="80" t="s">
+      <c r="E77" s="78" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="81" t="s">
+      <c r="A79" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="71" t="s">
+      <c r="B79" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="77" t="s">
+      <c r="C79" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="82"/>
-      <c r="E79" s="83"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="81"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="84" t="s">
+      <c r="A81" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="B81" s="71" t="s">
+      <c r="B81" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="C81" s="85" t="s">
+      <c r="C81" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="D81" s="86">
+      <c r="D81" s="84">
         <v>44646</v>
       </c>
-      <c r="E81" s="86">
+      <c r="E81" s="84">
         <v>44647</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-    </row>
-    <row r="83" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
+    <row r="82" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+    </row>
+    <row r="83" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="40" t="s">
+      <c r="D83" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="39" t="s">
+      <c r="E83" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="87">
+      <c r="A84" s="85">
         <v>3</v>
       </c>
-      <c r="B84" s="88" t="s">
+      <c r="B84" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="89"/>
-      <c r="D84" s="90">
+      <c r="C84" s="87"/>
+      <c r="D84" s="88">
         <v>44608</v>
       </c>
-      <c r="E84" s="91"/>
+      <c r="E84" s="89"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C85" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="D85" s="49">
+      <c r="D85" s="47">
         <v>44608</v>
       </c>
-      <c r="E85" s="49">
+      <c r="E85" s="47">
         <v>44608</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="36"/>
+      <c r="B86" s="34"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="62" t="s">
+      <c r="A87" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="B87" s="92" t="s">
+      <c r="B87" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="C87" s="43"/>
-      <c r="D87" s="86">
+      <c r="C87" s="41"/>
+      <c r="D87" s="84">
         <v>44649</v>
       </c>
-      <c r="E87" s="93"/>
+      <c r="E87" s="91"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="B88" s="92" t="s">
+      <c r="B88" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="43"/>
-      <c r="D88" s="49">
+      <c r="C88" s="41"/>
+      <c r="D88" s="47">
         <v>44649</v>
       </c>
-      <c r="E88" s="49">
+      <c r="E88" s="47">
         <v>44649</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="92" t="s">
+      <c r="B89" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="43"/>
-      <c r="D89" s="49">
+      <c r="C89" s="41"/>
+      <c r="D89" s="47">
         <v>44649</v>
       </c>
-      <c r="E89" s="49">
+      <c r="E89" s="47">
         <v>44651</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="62" t="s">
+      <c r="A90" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="92" t="s">
+      <c r="B90" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="C90" s="43"/>
-      <c r="D90" s="86">
+      <c r="C90" s="41"/>
+      <c r="D90" s="84">
         <v>44651</v>
       </c>
-      <c r="E90" s="86">
+      <c r="E90" s="84">
         <v>44652</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="94" t="s">
+      <c r="A91" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="95" t="s">
+      <c r="B91" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="D91" s="44">
+      <c r="D91" s="42">
         <v>44652</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="36"/>
+      <c r="B92" s="34"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="36"/>
+      <c r="B93" s="34"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="92" t="s">
+      <c r="B94" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="C94" s="43"/>
-      <c r="D94" s="49">
+      <c r="C94" s="41"/>
+      <c r="D94" s="47">
         <v>44652</v>
       </c>
-      <c r="E94" s="49">
+      <c r="E94" s="47">
         <v>44652</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="D95" s="49">
+      <c r="D95" s="47">
         <v>44652</v>
       </c>
-      <c r="E95" s="49">
+      <c r="E95" s="47">
         <v>44652</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="B97" s="92" t="s">
+      <c r="B97" s="90" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="43"/>
-      <c r="D97" s="49">
+      <c r="C97" s="41"/>
+      <c r="D97" s="47">
         <v>44654</v>
       </c>
-      <c r="E97" s="49">
+      <c r="E97" s="47">
         <v>44658</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="B99" s="92" t="s">
+      <c r="B99" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="43" t="s">
+      <c r="C99" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="D99" s="49">
+      <c r="D99" s="47">
         <v>44654</v>
       </c>
-      <c r="E99" s="49">
+      <c r="E99" s="47">
         <v>44658</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="47" t="s">
+    <row r="100" spans="1:5" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="B100" s="96" t="s">
+      <c r="B100" s="94" t="s">
         <v>196</v>
       </c>
-      <c r="C100" s="92" t="s">
+      <c r="C100" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="D100" s="49">
+      <c r="D100" s="47">
         <v>44658</v>
       </c>
-      <c r="E100" s="49">
+      <c r="E100" s="47">
         <v>44658</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="B102" s="92" t="s">
+      <c r="B102" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="C102" s="43"/>
-      <c r="D102" s="49">
+      <c r="C102" s="41"/>
+      <c r="D102" s="47">
         <v>44652</v>
       </c>
-      <c r="E102" s="49">
+      <c r="E102" s="47">
         <v>44652</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="47" t="s">
+      <c r="A104" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="B104" s="97" t="s">
+      <c r="B104" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="C104" s="43"/>
-      <c r="D104" s="49">
+      <c r="C104" s="41"/>
+      <c r="D104" s="47">
         <v>44649</v>
       </c>
-      <c r="E104" s="49">
+      <c r="E104" s="47">
         <v>44651</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="47" t="s">
+      <c r="A105" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="C105" s="43"/>
-      <c r="D105" s="49">
+      <c r="C105" s="41"/>
+      <c r="D105" s="47">
         <v>44651</v>
       </c>
-      <c r="E105" s="49">
+      <c r="E105" s="47">
         <v>44651</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="C106" s="43"/>
-      <c r="D106" s="49">
+      <c r="C106" s="41"/>
+      <c r="D106" s="47">
         <v>44651</v>
       </c>
-      <c r="E106" s="49">
+      <c r="E106" s="47">
         <v>44651</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="47" t="s">
+      <c r="A107" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="43"/>
-      <c r="D107" s="49">
+      <c r="C107" s="41"/>
+      <c r="D107" s="47">
         <v>44649</v>
       </c>
-      <c r="E107" s="49">
+      <c r="E107" s="47">
         <v>44651</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="47" t="s">
+      <c r="A108" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="B108" s="43" t="s">
+      <c r="B108" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="C108" s="43"/>
-      <c r="D108" s="49">
+      <c r="C108" s="41"/>
+      <c r="D108" s="47">
         <v>44649</v>
       </c>
-      <c r="E108" s="49">
+      <c r="E108" s="47">
         <v>44651</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="31"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
+    <row r="110" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="29"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="98">
+      <c r="A111" s="96">
         <v>4</v>
       </c>
-      <c r="B111" s="88" t="s">
+      <c r="B111" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="C111" s="89"/>
-      <c r="D111" s="49">
+      <c r="C111" s="87"/>
+      <c r="D111" s="47">
         <v>44610</v>
       </c>
-      <c r="E111" s="49">
+      <c r="E111" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="47" t="s">
+      <c r="A113" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="C113" s="43" t="s">
+      <c r="C113" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="D113" s="49">
+      <c r="D113" s="47">
         <v>44610</v>
       </c>
-      <c r="E113" s="49">
+      <c r="E113" s="47">
         <v>44610</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="47" t="s">
+      <c r="A114" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="D114" s="49">
+      <c r="D114" s="47">
         <v>44610</v>
       </c>
-      <c r="E114" s="49">
+      <c r="E114" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="99" t="s">
+      <c r="A116" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="B116" s="100" t="s">
+      <c r="B116" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="C116" s="43"/>
-      <c r="D116" s="49">
+      <c r="C116" s="41"/>
+      <c r="D116" s="47">
         <v>44612</v>
       </c>
-      <c r="E116" s="49">
+      <c r="E116" s="47">
         <v>44621</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="47" t="s">
+      <c r="A118" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="C118" s="43" t="s">
+      <c r="C118" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="D118" s="49">
+      <c r="D118" s="47">
         <v>44623</v>
       </c>
-      <c r="E118" s="49">
+      <c r="E118" s="47">
         <v>44623</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="47" t="s">
+      <c r="A119" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D119" s="49">
+      <c r="D119" s="47">
         <v>44623</v>
       </c>
-      <c r="E119" s="49">
+      <c r="E119" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="47" t="s">
+      <c r="A120" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="D120" s="49">
+      <c r="D120" s="47">
         <v>44631</v>
       </c>
-      <c r="E120" s="49">
+      <c r="E120" s="47">
         <v>44631</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="31"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
+    <row r="122" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="29"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="98">
+      <c r="A123" s="96">
         <v>5</v>
       </c>
-      <c r="B123" s="88" t="s">
+      <c r="B123" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="C123" s="89"/>
-      <c r="D123" s="49">
+      <c r="C123" s="87"/>
+      <c r="D123" s="47">
         <v>44623</v>
       </c>
-      <c r="E123" s="49">
+      <c r="E123" s="47">
         <v>44631</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="47" t="s">
+      <c r="A125" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B125" s="36" t="s">
+      <c r="B125" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="D125" s="49">
+      <c r="D125" s="47">
         <v>44623</v>
       </c>
-      <c r="E125" s="49">
+      <c r="E125" s="47">
         <v>44623</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="47" t="s">
+      <c r="A126" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="D126" s="49">
+      <c r="D126" s="47">
         <v>44630</v>
       </c>
-      <c r="E126" s="49">
+      <c r="E126" s="47">
         <v>44630</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="47" t="s">
+      <c r="A127" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B127" s="31" t="s">
+      <c r="B127" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="D127" s="49">
+      <c r="D127" s="47">
         <v>44630</v>
       </c>
-      <c r="E127" s="49">
+      <c r="E127" s="47">
         <v>44630</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="47" t="s">
+      <c r="A128" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="D128" s="49">
+      <c r="D128" s="47">
         <v>44630</v>
       </c>
-      <c r="E128" s="49">
+      <c r="E128" s="47">
         <v>44630</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="47" t="s">
+      <c r="A129" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="B129" s="31" t="s">
+      <c r="B129" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="D129" s="49">
+      <c r="D129" s="47">
         <v>44630</v>
       </c>
-      <c r="E129" s="49">
+      <c r="E129" s="47">
         <v>44630</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="47" t="s">
+      <c r="A131" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="B131" s="31" t="s">
+      <c r="B131" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="C131" s="31" t="s">
+      <c r="C131" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="D131" s="49">
+      <c r="D131" s="47">
         <v>44623</v>
       </c>
-      <c r="E131" s="49">
+      <c r="E131" s="47">
         <v>44624</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="47" t="s">
+      <c r="A133" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="B133" s="31" t="s">
+      <c r="B133" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C133" s="31" t="s">
+      <c r="C133" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="D133" s="49">
+      <c r="D133" s="47">
         <v>44630</v>
       </c>
-      <c r="E133" s="49">
+      <c r="E133" s="47">
         <v>44630</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="47" t="s">
+      <c r="A134" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="B134" s="31" t="s">
+      <c r="B134" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="C134" s="43" t="s">
+      <c r="C134" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="D134" s="49">
+      <c r="D134" s="47">
         <v>44623</v>
       </c>
-      <c r="E134" s="49">
+      <c r="E134" s="47">
         <v>44623</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="47" t="s">
+      <c r="A135" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="B135" s="101" t="s">
+      <c r="B135" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="D135" s="49">
+      <c r="D135" s="47">
         <v>44630</v>
       </c>
-      <c r="E135" s="49">
+      <c r="E135" s="47">
         <v>44640</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="47" t="s">
+      <c r="A136" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="D136" s="49">
+      <c r="D136" s="47">
         <v>44630</v>
       </c>
-      <c r="E136" s="49">
+      <c r="E136" s="47">
         <v>44630</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
-      <c r="B138" s="31"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="32"/>
+    <row r="138" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="29"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="98">
+      <c r="A139" s="96">
         <v>6</v>
       </c>
-      <c r="B139" s="40" t="s">
+      <c r="B139" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="C139" s="89"/>
-      <c r="D139" s="49">
+      <c r="C139" s="87"/>
+      <c r="D139" s="47">
         <v>44625</v>
       </c>
-      <c r="E139" s="49">
+      <c r="E139" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="87">
+      <c r="A142" s="85">
         <v>7</v>
       </c>
-      <c r="B142" s="102" t="s">
+      <c r="B142" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="70">
+      <c r="C142" s="41"/>
+      <c r="D142" s="68">
         <v>44631</v>
       </c>
-      <c r="E142" s="45"/>
+      <c r="E142" s="43"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="103" t="s">
+      <c r="A143" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B143" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="D143" s="104">
+      <c r="D143" s="102">
         <v>44631</v>
       </c>
-      <c r="E143" s="104">
+      <c r="E143" s="102">
         <v>44631</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="47" t="s">
+      <c r="A144" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="B144" s="35" t="s">
+      <c r="B144" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="D144" s="49">
+      <c r="D144" s="47">
         <v>44631</v>
       </c>
-      <c r="E144" s="49">
+      <c r="E144" s="47">
         <v>44639</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="47" t="s">
+      <c r="A145" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="B145" s="35" t="s">
+      <c r="B145" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="D145" s="49">
+      <c r="D145" s="47">
         <v>44641</v>
       </c>
-      <c r="E145" s="49">
+      <c r="E145" s="47">
         <v>44645</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="47" t="s">
+      <c r="A146" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B146" s="35" t="s">
+      <c r="B146" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="D146" s="49">
+      <c r="D146" s="47">
         <v>44635</v>
       </c>
-      <c r="E146" s="49">
+      <c r="E146" s="47">
         <v>44639</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="47" t="s">
+      <c r="A147" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="B147" s="35" t="s">
+      <c r="B147" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="C147" s="105" t="s">
+      <c r="C147" s="103" t="s">
         <v>254</v>
       </c>
-      <c r="D147" s="106">
+      <c r="D147" s="104">
         <v>44639</v>
       </c>
-      <c r="E147" s="106">
+      <c r="E147" s="104">
         <v>44639</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="47" t="s">
+      <c r="A148" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="B148" s="107" t="s">
+      <c r="B148" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="C148" s="108"/>
-      <c r="D148" s="49">
+      <c r="C148" s="106"/>
+      <c r="D148" s="47">
         <v>44670</v>
       </c>
-      <c r="E148" s="49">
+      <c r="E148" s="47">
         <v>44670</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="33"/>
-      <c r="B149" s="35"/>
+      <c r="A149" s="31"/>
+      <c r="B149" s="33"/>
     </row>
     <row r="150" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="47" t="s">
+      <c r="A150" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D150" s="49">
+      <c r="D150" s="47">
         <v>44640</v>
       </c>
-      <c r="E150" s="49">
+      <c r="E150" s="47">
         <v>44640</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="33"/>
-      <c r="B151" s="35"/>
+      <c r="A151" s="31"/>
+      <c r="B151" s="33"/>
     </row>
     <row r="152" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="47" t="s">
+      <c r="A152" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="B152" s="35" t="s">
+      <c r="B152" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C152" s="31" t="s">
+      <c r="C152" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="D152" s="49">
+      <c r="D152" s="47">
         <v>44640</v>
       </c>
-      <c r="E152" s="49">
+      <c r="E152" s="47">
         <v>44640</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="62" t="s">
+      <c r="A153" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="B153" s="43" t="s">
+      <c r="B153" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="C153" s="109" t="s">
+      <c r="C153" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="D153" s="86">
+      <c r="D153" s="84">
         <v>44668</v>
       </c>
-      <c r="E153" s="86">
+      <c r="E153" s="84">
         <v>44669</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="110">
+      <c r="A156" s="108">
         <v>8</v>
       </c>
-      <c r="B156" s="111" t="s">
+      <c r="B156" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="C156" s="43"/>
-      <c r="D156" s="44">
+      <c r="C156" s="41"/>
+      <c r="D156" s="42">
         <v>44645</v>
       </c>
-      <c r="E156" s="45"/>
+      <c r="E156" s="43"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="103" t="s">
+      <c r="A157" s="101" t="s">
         <v>264</v>
       </c>
-      <c r="B157" s="112" t="s">
+      <c r="B157" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="C157" s="43" t="s">
+      <c r="C157" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="D157" s="49">
+      <c r="D157" s="47">
         <v>44646</v>
       </c>
-      <c r="E157" s="49">
+      <c r="E157" s="47">
         <v>44668</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="113" t="s">
+      <c r="A158" s="111" t="s">
         <v>267</v>
       </c>
-      <c r="B158" s="114" t="s">
+      <c r="B158" s="112" t="s">
         <v>268</v>
       </c>
-      <c r="C158" s="72"/>
-      <c r="D158" s="115">
+      <c r="C158" s="70"/>
+      <c r="D158" s="113">
         <v>44646</v>
       </c>
-      <c r="E158" s="86">
+      <c r="E158" s="84">
         <v>44659</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="6"/>
+      <c r="B159" s="4"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="47" t="s">
+      <c r="A160" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="B160" s="112" t="s">
+      <c r="B160" s="110" t="s">
         <v>270</v>
       </c>
-      <c r="C160" s="92" t="s">
+      <c r="C160" s="90" t="s">
         <v>271</v>
       </c>
-      <c r="D160" s="49">
+      <c r="D160" s="47">
         <v>44659</v>
       </c>
-      <c r="E160" s="49">
+      <c r="E160" s="47">
         <v>44665</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="62" t="s">
+      <c r="A161" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="B161" s="112" t="s">
+      <c r="B161" s="110" t="s">
         <v>273</v>
       </c>
-      <c r="C161" s="116" t="s">
+      <c r="C161" s="114" t="s">
         <v>274</v>
       </c>
-      <c r="D161" s="44">
+      <c r="D161" s="42">
         <v>44659</v>
       </c>
-      <c r="E161" s="45"/>
+      <c r="E161" s="43"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C162" s="92" t="s">
+      <c r="C162" s="90" t="s">
         <v>276</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="140">
         <v>44666</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="141">
         <v>44668</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B163" s="117" t="s">
+      <c r="B163" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C163" s="118" t="s">
+      <c r="C163" s="116" t="s">
         <v>277</v>
       </c>
-      <c r="D163" s="2"/>
-      <c r="E163" s="1"/>
+      <c r="D163" s="140"/>
+      <c r="E163" s="141"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="119" t="s">
+      <c r="B164" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="C164" s="120" t="s">
+      <c r="C164" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="D164" s="44">
+      <c r="D164" s="42">
         <v>44668</v>
       </c>
-      <c r="E164" s="45"/>
+      <c r="E164" s="43"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="6"/>
+      <c r="B165" s="4"/>
     </row>
     <row r="166" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="94" t="s">
+      <c r="A166" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="B166" s="139" t="s">
+      <c r="B166" s="137" t="s">
         <v>281</v>
       </c>
-      <c r="C166" s="121" t="s">
+      <c r="C166" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="D166" s="93">
+      <c r="D166" s="91">
         <v>44665</v>
       </c>
-      <c r="E166" s="45"/>
+      <c r="E166" s="43"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="94" t="s">
+      <c r="A167" s="142" t="s">
+        <v>342</v>
+      </c>
+      <c r="B167" s="128" t="s">
         <v>344</v>
       </c>
-      <c r="B167" s="130" t="s">
+      <c r="C167" s="138" t="s">
+        <v>340</v>
+      </c>
+      <c r="D167" s="47">
+        <v>44697</v>
+      </c>
+      <c r="E167" s="47">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="C167" s="140" t="s">
-        <v>340</v>
-      </c>
-      <c r="D167" s="141">
-        <v>44697</v>
-      </c>
-      <c r="E167" s="45"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="94" t="s">
+      <c r="B168" s="128" t="s">
+        <v>347</v>
+      </c>
+      <c r="C168" s="138" t="s">
+        <v>341</v>
+      </c>
+      <c r="D168" s="139">
+        <v>44698</v>
+      </c>
+      <c r="E168" s="43"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="92" t="s">
         <v>345</v>
       </c>
-      <c r="B168" s="130" t="s">
+      <c r="B169" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="C169" s="138" t="s">
         <v>341</v>
       </c>
-      <c r="C168" s="140" t="s">
-        <v>342</v>
-      </c>
-      <c r="D168" s="93"/>
-      <c r="E168" s="45"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="130"/>
-      <c r="C169" s="140"/>
-      <c r="D169" s="93"/>
-      <c r="E169" s="45"/>
+      <c r="D169" s="139">
+        <v>44698</v>
+      </c>
+      <c r="E169" s="43"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="130"/>
-      <c r="C170" s="140"/>
-      <c r="D170" s="93"/>
-      <c r="E170" s="45"/>
+      <c r="A170" s="92" t="s">
+        <v>349</v>
+      </c>
+      <c r="B170" s="128" t="s">
+        <v>348</v>
+      </c>
+      <c r="C170" s="138"/>
+      <c r="D170" s="139">
+        <v>44698</v>
+      </c>
+      <c r="E170" s="43"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="119" t="s">
+      <c r="B171" s="128"/>
+      <c r="C171" s="138"/>
+      <c r="D171" s="91"/>
+      <c r="E171" s="43"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="C171" s="120" t="s">
+      <c r="C172" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="D171" s="44">
+      <c r="D172" s="42">
         <v>44668</v>
       </c>
-      <c r="E171" s="45"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="92"/>
-      <c r="C172" s="122"/>
-      <c r="D172" s="93"/>
-      <c r="E172" s="45"/>
+      <c r="E172" s="43"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="62" t="s">
+      <c r="B173" s="90"/>
+      <c r="C173" s="120"/>
+      <c r="D173" s="91"/>
+      <c r="E173" s="43"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="B173" s="112" t="s">
+      <c r="B174" s="110" t="s">
         <v>284</v>
       </c>
-      <c r="C173" s="92" t="s">
+      <c r="C174" s="90" t="s">
         <v>285</v>
       </c>
-      <c r="D173" s="86">
+      <c r="D174" s="84">
         <v>44665</v>
       </c>
-      <c r="E173" s="86">
+      <c r="E174" s="84">
         <v>44668</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="119" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="C174" s="120" t="s">
+      <c r="C175" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="D174" s="44">
+      <c r="D175" s="42">
         <v>44668</v>
       </c>
-      <c r="E174" s="45"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="6"/>
+      <c r="E175" s="43"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="62" t="s">
+      <c r="B176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="B176" s="123" t="s">
+      <c r="B177" s="121" t="s">
         <v>287</v>
       </c>
-      <c r="C176" s="124" t="s">
+      <c r="C177" s="122" t="s">
         <v>288</v>
       </c>
-      <c r="D176" s="86">
+      <c r="D177" s="84">
         <v>44665</v>
       </c>
-      <c r="E176" s="86">
+      <c r="E177" s="84">
         <v>44671</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B177" s="119" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="C177" s="120" t="s">
+      <c r="C178" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="D177" s="44">
+      <c r="D178" s="42">
         <v>44668</v>
       </c>
-      <c r="E177" s="45"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="6"/>
+      <c r="E178" s="43"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="62" t="s">
+      <c r="B179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="B179" s="125" t="s">
+      <c r="B180" s="123" t="s">
         <v>290</v>
       </c>
-      <c r="C179" s="126" t="s">
+      <c r="C180" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="D179" s="86">
+      <c r="D180" s="84">
         <v>44665</v>
       </c>
-      <c r="E179" s="86">
+      <c r="E180" s="84">
         <v>44693</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="47" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B181" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D180" s="49">
+      <c r="D181" s="47">
         <v>44665</v>
       </c>
-      <c r="E180" s="49">
+      <c r="E181" s="47">
         <v>44685</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="47" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B182" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D181" s="49">
+      <c r="D182" s="47">
         <v>44665</v>
       </c>
-      <c r="E181" s="49">
+      <c r="E182" s="47">
         <v>44685</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="47" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B183" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D182" s="49">
+      <c r="D183" s="47">
         <v>44665</v>
       </c>
-      <c r="E182" s="49">
+      <c r="E183" s="47">
         <v>44685</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="47" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B184" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D183" s="49">
+      <c r="D184" s="47">
         <v>44665</v>
       </c>
-      <c r="E183" s="49">
+      <c r="E184" s="47">
         <v>44685</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="47" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B185" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D184" s="49">
+      <c r="D185" s="47">
         <v>44685</v>
       </c>
-      <c r="E184" s="49">
+      <c r="E185" s="47">
         <v>44686</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="127" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="125" t="s">
         <v>302</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B186" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C185" s="128" t="s">
+      <c r="C186" s="126" t="s">
         <v>304</v>
       </c>
-      <c r="D185" s="129">
+      <c r="D186" s="127">
         <v>44686</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="47" t="s">
+    <row r="187" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="B186" s="123" t="s">
+      <c r="B187" s="121" t="s">
         <v>306</v>
       </c>
-      <c r="C186" s="130" t="s">
+      <c r="C187" s="128" t="s">
         <v>307</v>
       </c>
-      <c r="D186" s="49">
+      <c r="D187" s="47">
         <v>44686</v>
       </c>
-      <c r="E186" s="49">
+      <c r="E187" s="47">
         <v>44693</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="47" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="45" t="s">
         <v>308</v>
       </c>
-      <c r="B187" s="123" t="s">
+      <c r="B188" s="121" t="s">
         <v>309</v>
       </c>
-      <c r="C187" s="130"/>
-      <c r="D187" s="49">
+      <c r="C188" s="128"/>
+      <c r="D188" s="47">
         <v>44693</v>
       </c>
-      <c r="E187" s="49">
+      <c r="E188" s="47">
         <v>44693</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="47" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="B188" s="114" t="s">
+      <c r="B189" s="112" t="s">
         <v>311</v>
       </c>
-      <c r="C188" s="72"/>
-      <c r="D188" s="75">
+      <c r="C189" s="70"/>
+      <c r="D189" s="73">
         <v>44686</v>
       </c>
-      <c r="E188" s="75">
+      <c r="E189" s="73">
         <v>44687</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="131" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="129" t="s">
         <v>312</v>
       </c>
-      <c r="B189" s="114" t="s">
+      <c r="B190" s="112" t="s">
         <v>313</v>
       </c>
-      <c r="C189" s="132" t="s">
+      <c r="C190" s="130" t="s">
         <v>314</v>
       </c>
-      <c r="D189" s="83"/>
-      <c r="E189" s="83"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="127" t="s">
+      <c r="D190" s="81"/>
+      <c r="E190" s="81"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="125" t="s">
         <v>315</v>
       </c>
-      <c r="B190" s="114" t="s">
+      <c r="B191" s="112" t="s">
         <v>316</v>
       </c>
-      <c r="C190" s="133" t="s">
+      <c r="C191" s="131" t="s">
         <v>304</v>
       </c>
-      <c r="D190" s="83"/>
-      <c r="E190" s="83"/>
-    </row>
-    <row r="191" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="127" t="s">
+      <c r="D191" s="81"/>
+      <c r="E191" s="81"/>
+    </row>
+    <row r="192" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="125" t="s">
         <v>317</v>
       </c>
-      <c r="B191" s="114" t="s">
+      <c r="B192" s="112" t="s">
         <v>318</v>
       </c>
-      <c r="C191" s="78" t="s">
+      <c r="C192" s="76" t="s">
         <v>319</v>
       </c>
-      <c r="D191" s="83"/>
-      <c r="E191" s="83"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="127" t="s">
+      <c r="D192" s="81"/>
+      <c r="E192" s="81"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="125" t="s">
         <v>320</v>
       </c>
-      <c r="B192" s="134" t="s">
+      <c r="B193" s="132" t="s">
         <v>321</v>
       </c>
-      <c r="C192" s="133" t="s">
+      <c r="C193" s="131" t="s">
         <v>304</v>
       </c>
-      <c r="D192" s="135"/>
-      <c r="E192" s="135"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="6"/>
+      <c r="D193" s="133"/>
+      <c r="E193" s="133"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="47" t="s">
+      <c r="B194" s="4"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="B194" s="112" t="s">
+      <c r="B195" s="110" t="s">
         <v>323</v>
       </c>
-      <c r="C194" s="92" t="s">
+      <c r="C195" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="D194" s="49">
+      <c r="D195" s="47">
         <v>44670</v>
       </c>
-      <c r="E194" s="49">
+      <c r="E195" s="47">
         <v>44670</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="6"/>
-    </row>
-    <row r="196" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="47" t="s">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="4"/>
+    </row>
+    <row r="197" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A197" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="B196" s="112" t="s">
+      <c r="B197" s="110" t="s">
         <v>326</v>
       </c>
-      <c r="C196" s="96" t="s">
+      <c r="C197" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="D196" s="49">
+      <c r="D197" s="47">
         <v>44659</v>
       </c>
-      <c r="E196" s="49">
+      <c r="E197" s="47">
         <v>44665</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="6"/>
-    </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="136" t="s">
+      <c r="B198" s="4"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="134" t="s">
         <v>328</v>
       </c>
-      <c r="B198" s="112" t="s">
+      <c r="B199" s="110" t="s">
         <v>329</v>
       </c>
-      <c r="C198" s="43" t="s">
+      <c r="C199" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="D198" s="137">
+      <c r="D199" s="135">
         <v>44668</v>
       </c>
-      <c r="E198" s="45"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="136" t="s">
+      <c r="E199" s="43"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="134" t="s">
         <v>331</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B200" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B200" s="6"/>
-    </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="60" t="s">
+      <c r="B201" s="4"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="B201" s="112" t="s">
+      <c r="B202" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="C201" s="43"/>
-      <c r="D201" s="45"/>
-      <c r="E201" s="45"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="6"/>
+      <c r="C202" s="41"/>
+      <c r="D202" s="43"/>
+      <c r="E202" s="43"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="60" t="s">
+      <c r="B203" s="4"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="B203" s="112" t="s">
+      <c r="B204" s="110" t="s">
         <v>336</v>
       </c>
-      <c r="C203" s="43"/>
-      <c r="D203" s="45"/>
-      <c r="E203" s="45"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B204" s="6"/>
+      <c r="C204" s="41"/>
+      <c r="D204" s="43"/>
+      <c r="E204" s="43"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="6"/>
-    </row>
-    <row r="206" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A206" s="62" t="s">
+      <c r="B205" s="4"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="4"/>
+    </row>
+    <row r="207" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A207" s="60" t="s">
         <v>337</v>
       </c>
-      <c r="B206" s="112" t="s">
+      <c r="B207" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="C206" s="138" t="s">
+      <c r="C207" s="136" t="s">
         <v>339</v>
       </c>
-      <c r="D206" s="86">
+      <c r="D207" s="84">
         <v>44668</v>
       </c>
-      <c r="E206" s="86">
+      <c r="E207" s="84">
         <v>44668</v>
       </c>
     </row>

--- a/Курсовая работа.xlsx
+++ b/Курсовая работа.xlsx
@@ -811,6 +811,9 @@
     <t xml:space="preserve">Сброс данных формы для предотвращения отправки через F5.</t>
   </si>
   <si>
+    <t xml:space="preserve">header("Location: /article/$articleId")</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.3</t>
   </si>
   <si>
@@ -1252,10 +1255,7 @@
     <t xml:space="preserve">8.3.3.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Сохраниение фото, если оно было и не менялось.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сейчас пишет default-фото</t>
+    <t xml:space="preserve">Сохранение фото, если оно было и не менялось.</t>
   </si>
   <si>
     <t xml:space="preserve">8.3.4</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">После добавления статьи переходить на эту статью, чтобы не было переотправки формы?</t>
   </si>
   <si>
-    <t xml:space="preserve">Страница редактирования статьи?</t>
+    <t xml:space="preserve">header("Location: /admin-cms/$id/$change/$result")</t>
   </si>
   <si>
     <t xml:space="preserve">8.6.10</t>
@@ -1433,7 +1433,27 @@
     <t xml:space="preserve">Добавить кнопку удалить статью. Появляется после создания статьи.</t>
   </si>
   <si>
-    <t xml:space="preserve">Потом может быть…М.б. на странице редактирования статьи? </t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">См.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">8.3.2</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">8.6.12</t>
@@ -1832,7 +1852,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1917,12 +1937,6 @@
         <bgColor rgb="FFE6B9B8"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBF819E"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
@@ -1993,7 +2007,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="142">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2490,22 +2504,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2530,18 +2532,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2552,6 +2554,14 @@
     </xf>
     <xf numFmtId="165" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2624,7 +2634,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFBF819E"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
@@ -2651,11 +2661,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="110.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
@@ -3141,13 +3151,13 @@
   </sheetPr>
   <dimension ref="A2:E229"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A164" activeCellId="0" sqref="A164"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A195" activeCellId="0" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="96.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="29" width="46.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="11.86"/>
@@ -4054,7 +4064,7 @@
         <v>185</v>
       </c>
       <c r="C91" s="93" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D91" s="47" t="n">
         <v>44652</v>
@@ -4071,10 +4081,10 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B94" s="90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C94" s="41"/>
       <c r="D94" s="47" t="n">
@@ -4086,10 +4096,10 @@
     </row>
     <row r="95" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D95" s="47" t="n">
         <v>44652</v>
@@ -4100,10 +4110,10 @@
     </row>
     <row r="97" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B97" s="90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C97" s="41"/>
       <c r="D97" s="47" t="n">
@@ -4115,13 +4125,13 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B99" s="90" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D99" s="47" t="n">
         <v>44654</v>
@@ -4132,13 +4142,13 @@
     </row>
     <row r="100" s="31" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B100" s="94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C100" s="90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D100" s="47" t="n">
         <v>44658</v>
@@ -4149,10 +4159,10 @@
     </row>
     <row r="102" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B102" s="90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C102" s="41"/>
       <c r="D102" s="47" t="n">
@@ -4164,10 +4174,10 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B104" s="95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C104" s="41"/>
       <c r="D104" s="47" t="n">
@@ -4179,10 +4189,10 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B105" s="41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C105" s="41"/>
       <c r="D105" s="47" t="n">
@@ -4194,10 +4204,10 @@
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B106" s="41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C106" s="41"/>
       <c r="D106" s="47" t="n">
@@ -4209,10 +4219,10 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B107" s="41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C107" s="41"/>
       <c r="D107" s="47" t="n">
@@ -4224,10 +4234,10 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B108" s="41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C108" s="41"/>
       <c r="D108" s="47" t="n">
@@ -4261,10 +4271,10 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C113" s="41" t="s">
         <v>175</v>
@@ -4278,10 +4288,10 @@
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D114" s="47" t="n">
         <v>44610</v>
@@ -4292,10 +4302,10 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B116" s="98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C116" s="41"/>
       <c r="D116" s="47" t="n">
@@ -4307,10 +4317,10 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C118" s="41" t="s">
         <v>175</v>
@@ -4324,10 +4334,10 @@
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D119" s="47" t="n">
         <v>44623</v>
@@ -4338,10 +4348,10 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D120" s="47" t="n">
         <v>44631</v>
@@ -4374,10 +4384,10 @@
     </row>
     <row r="125" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D125" s="47" t="n">
         <v>44623</v>
@@ -4388,10 +4398,10 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D126" s="47" t="n">
         <v>44630</v>
@@ -4402,10 +4412,10 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D127" s="47" t="n">
         <v>44630</v>
@@ -4416,10 +4426,10 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="45" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D128" s="47" t="n">
         <v>44630</v>
@@ -4430,10 +4440,10 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D129" s="47" t="n">
         <v>44630</v>
@@ -4444,13 +4454,13 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D131" s="47" t="n">
         <v>44623</v>
@@ -4461,13 +4471,13 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D133" s="47" t="n">
         <v>44630</v>
@@ -4478,10 +4488,10 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C134" s="41" t="s">
         <v>175</v>
@@ -4495,10 +4505,10 @@
     </row>
     <row r="135" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B135" s="99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D135" s="47" t="n">
         <v>44630</v>
@@ -4509,10 +4519,10 @@
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D136" s="47" t="n">
         <v>44630</v>
@@ -4533,7 +4543,7 @@
         <v>6</v>
       </c>
       <c r="B139" s="38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C139" s="87"/>
       <c r="D139" s="47" t="n">
@@ -4558,10 +4568,10 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D143" s="102" t="n">
         <v>44631</v>
@@ -4572,10 +4582,10 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D144" s="47" t="n">
         <v>44631</v>
@@ -4586,10 +4596,10 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D145" s="47" t="n">
         <v>44641</v>
@@ -4600,10 +4610,10 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D146" s="47" t="n">
         <v>44635</v>
@@ -4614,13 +4624,13 @@
     </row>
     <row r="147" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C147" s="103" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D147" s="104" t="n">
         <v>44639</v>
@@ -4631,10 +4641,10 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="45" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B148" s="105" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C148" s="106"/>
       <c r="D148" s="47" t="n">
@@ -4650,10 +4660,10 @@
     </row>
     <row r="150" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D150" s="47" t="n">
         <v>44640</v>
@@ -4668,13 +4678,13 @@
     </row>
     <row r="152" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B152" s="33" t="s">
         <v>63</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D152" s="47" t="n">
         <v>44640</v>
@@ -4685,13 +4695,13 @@
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B153" s="41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C153" s="107" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D153" s="84" t="n">
         <v>44668</v>
@@ -4715,13 +4725,13 @@
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="101" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B157" s="110" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D157" s="47" t="n">
         <v>44646</v>
@@ -4732,10 +4742,10 @@
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="111" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B158" s="112" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C158" s="70"/>
       <c r="D158" s="113" t="n">
@@ -4750,13 +4760,13 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B160" s="110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C160" s="90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D160" s="47" t="n">
         <v>44659</v>
@@ -4767,13 +4777,13 @@
     </row>
     <row r="161" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="60" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B161" s="110" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C161" s="114" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D161" s="42" t="n">
         <v>44659</v>
@@ -4782,10 +4792,10 @@
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C162" s="90" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D162" s="115" t="n">
         <v>44666</v>
@@ -4799,20 +4809,20 @@
         <v>36</v>
       </c>
       <c r="C163" s="105" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D163" s="115"/>
       <c r="E163" s="116"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="118" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B164" s="119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C164" s="120" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D164" s="42" t="n">
         <v>44668</v>
@@ -4824,13 +4834,13 @@
     </row>
     <row r="166" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="118" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B166" s="121" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C166" s="122" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D166" s="91" t="n">
         <v>44665</v>
@@ -4839,13 +4849,13 @@
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B167" s="90" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C167" s="123" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D167" s="47" t="n">
         <v>44697</v>
@@ -4856,13 +4866,13 @@
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="45" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B168" s="90" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C168" s="123" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D168" s="47" t="n">
         <v>44698</v>
@@ -4871,15 +4881,15 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="169" s="125" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="B169" s="124" t="s">
         <v>291</v>
       </c>
+      <c r="B169" s="90" t="s">
+        <v>292</v>
+      </c>
       <c r="C169" s="123" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D169" s="47" t="n">
         <v>44699</v>
@@ -4896,13 +4906,13 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B171" s="90" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C171" s="123" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D171" s="84" t="n">
         <v>44698</v>
@@ -4911,10 +4921,10 @@
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="B172" s="124" t="s">
         <v>296</v>
+      </c>
+      <c r="B172" s="90" t="s">
+        <v>297</v>
       </c>
       <c r="C172" s="123"/>
       <c r="D172" s="47" t="n">
@@ -4926,10 +4936,10 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="B173" s="124" t="s">
         <v>298</v>
+      </c>
+      <c r="B173" s="90" t="s">
+        <v>299</v>
       </c>
       <c r="C173" s="123"/>
       <c r="D173" s="47" t="n">
@@ -4939,16 +4949,14 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="B174" s="124" t="s">
         <v>300</v>
       </c>
-      <c r="C174" s="126" t="s">
+      <c r="B174" s="90" t="s">
         <v>301</v>
       </c>
+      <c r="C174" s="124"/>
       <c r="D174" s="47" t="n">
         <v>44699</v>
       </c>
@@ -4956,11 +4964,11 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="175" s="125" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="B175" s="124" t="s">
+      <c r="B175" s="90" t="s">
         <v>303</v>
       </c>
       <c r="C175" s="123" t="s">
@@ -4969,7 +4977,7 @@
       <c r="D175" s="84" t="n">
         <v>44699</v>
       </c>
-      <c r="E175" s="127"/>
+      <c r="E175" s="43"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="90"/>
@@ -4985,7 +4993,7 @@
         <v>306</v>
       </c>
       <c r="C177" s="120" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D177" s="42" t="n">
         <v>44668</v>
@@ -5023,7 +5031,7 @@
         <v>311</v>
       </c>
       <c r="C180" s="120" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D180" s="42" t="n">
         <v>44668</v>
@@ -5040,7 +5048,7 @@
       <c r="B182" s="110" t="s">
         <v>313</v>
       </c>
-      <c r="C182" s="128" t="s">
+      <c r="C182" s="125" t="s">
         <v>314</v>
       </c>
       <c r="D182" s="84" t="n">
@@ -5058,7 +5066,7 @@
         <v>316</v>
       </c>
       <c r="C183" s="120" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D183" s="42" t="n">
         <v>44668</v>
@@ -5072,10 +5080,10 @@
       <c r="A185" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="B185" s="129" t="s">
+      <c r="B185" s="126" t="s">
         <v>318</v>
       </c>
-      <c r="C185" s="130" t="s">
+      <c r="C185" s="127" t="s">
         <v>319</v>
       </c>
       <c r="D185" s="84" t="n">
@@ -5156,16 +5164,16 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="131" t="s">
+      <c r="A191" s="128" t="s">
         <v>330</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C191" s="132" t="s">
+      <c r="C191" s="129" t="s">
         <v>332</v>
       </c>
-      <c r="D191" s="133" t="n">
+      <c r="D191" s="130" t="n">
         <v>44686</v>
       </c>
     </row>
@@ -5216,57 +5224,61 @@
         <v>44687</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="134" t="s">
+    <row r="195" customFormat="false" ht="26.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="45" t="s">
         <v>340</v>
       </c>
       <c r="B195" s="112" t="s">
         <v>341</v>
       </c>
-      <c r="C195" s="135" t="s">
+      <c r="C195" s="131" t="s">
         <v>342</v>
       </c>
-      <c r="D195" s="81"/>
-      <c r="E195" s="81"/>
+      <c r="D195" s="47" t="n">
+        <v>44700</v>
+      </c>
+      <c r="E195" s="47" t="n">
+        <v>44700</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="131" t="s">
+      <c r="A196" s="128" t="s">
         <v>343</v>
       </c>
       <c r="B196" s="112" t="s">
         <v>344</v>
       </c>
-      <c r="C196" s="136" t="s">
+      <c r="C196" s="132" t="s">
         <v>332</v>
       </c>
       <c r="D196" s="81"/>
       <c r="E196" s="81"/>
     </row>
-    <row r="197" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="131" t="s">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="45" t="s">
         <v>345</v>
       </c>
       <c r="B197" s="112" t="s">
         <v>346</v>
       </c>
-      <c r="C197" s="76" t="s">
+      <c r="C197" s="133" t="s">
         <v>347</v>
       </c>
       <c r="D197" s="81"/>
       <c r="E197" s="81"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="131" t="s">
+      <c r="A198" s="128" t="s">
         <v>348</v>
       </c>
       <c r="B198" s="112" t="s">
         <v>349</v>
       </c>
-      <c r="C198" s="136" t="s">
+      <c r="C198" s="132" t="s">
         <v>332</v>
       </c>
-      <c r="D198" s="137"/>
-      <c r="E198" s="137"/>
+      <c r="D198" s="134"/>
+      <c r="E198" s="134"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="4"/>
@@ -5312,7 +5324,7 @@
       <c r="B203" s="4"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="138" t="s">
+      <c r="A204" s="135" t="s">
         <v>356</v>
       </c>
       <c r="B204" s="110" t="s">
@@ -5321,38 +5333,44 @@
       <c r="C204" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="D204" s="139" t="n">
+      <c r="D204" s="136" t="n">
         <v>44668</v>
       </c>
       <c r="E204" s="43"/>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="138" t="s">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="128" t="s">
         <v>359</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="137" t="s">
         <v>360</v>
       </c>
+      <c r="C205" s="132" t="s">
+        <v>332</v>
+      </c>
+      <c r="D205" s="91"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="138" t="s">
+      <c r="A207" s="118" t="s">
         <v>361</v>
       </c>
-      <c r="B207" s="110" t="s">
+      <c r="B207" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="C207" s="41"/>
-      <c r="D207" s="43"/>
+      <c r="C207" s="138"/>
+      <c r="D207" s="42" t="n">
+        <v>44701</v>
+      </c>
       <c r="E207" s="43"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="4"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="138" t="s">
+      <c r="A209" s="135" t="s">
         <v>363</v>
       </c>
       <c r="B209" s="110" t="s">
@@ -5375,7 +5393,7 @@
       <c r="B212" s="110" t="s">
         <v>366</v>
       </c>
-      <c r="C212" s="140" t="s">
+      <c r="C212" s="139" t="s">
         <v>367</v>
       </c>
       <c r="D212" s="84" t="n">
@@ -5386,7 +5404,7 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="141" t="n">
+      <c r="A215" s="140" t="n">
         <v>9</v>
       </c>
       <c r="B215" s="109" t="s">
@@ -5397,7 +5415,7 @@
       <c r="E215" s="43"/>
     </row>
     <row r="216" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="142" t="s">
+      <c r="A216" s="141" t="s">
         <v>369</v>
       </c>
       <c r="B216" s="23" t="s">

--- a/Курсовая работа.xlsx
+++ b/Курсовая работа.xlsx
@@ -1608,6 +1608,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t xml:space="preserve">Потом может быть… </t>
     </r>
     <r>
@@ -1858,7 +1866,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1933,24 +1941,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDE59"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFA6A6"/>
         <bgColor rgb="FFE6B9B8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFCCC1DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor rgb="FFCCC1DA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2025,18 +2069,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2360,19 +2411,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2385,30 +2424,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2421,9 +2443,70 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2801,8 +2884,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="110.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
@@ -2810,70 +2893,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>44553</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
@@ -2881,7 +2964,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
@@ -2889,7 +2972,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
@@ -2897,379 +2980,379 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
+      <c r="B35" s="23"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="126" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
+      <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="23" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="28" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
+      <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B70" s="7"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3283,2354 +3366,2385 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="96.85546875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="32" customWidth="1"/>
-    <col min="6" max="1025" width="8.5703125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="96.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="30" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="33" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="33" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="33"/>
     </row>
     <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
-    </row>
-    <row r="12" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
+    </row>
+    <row r="12" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="39">
         <v>1</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44">
+      <c r="C15" s="41"/>
+      <c r="D15" s="42">
         <v>44553</v>
       </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="44"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="47">
         <v>44572</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="49"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="30" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="30" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="30" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="30" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="49"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+    <row r="25" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="47">
         <v>44572</v>
       </c>
-      <c r="E26" s="56"/>
+      <c r="E26" s="54"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="49"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="49"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="47">
         <v>44572</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="E29" s="43"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="47">
         <v>44573</v>
       </c>
-      <c r="E30" s="45"/>
+      <c r="E30" s="43"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="47">
         <v>44572</v>
       </c>
-      <c r="E31" s="45"/>
-    </row>
-    <row r="32" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="E31" s="43"/>
+    </row>
+    <row r="32" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="56" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="49">
+      <c r="D35" s="47">
         <v>44573</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="33" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="49">
+      <c r="D38" s="47">
         <v>44573</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="49">
+      <c r="D39" s="47">
         <v>44585</v>
       </c>
-      <c r="E39" s="49">
+      <c r="E39" s="47">
         <v>44586</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="47">
         <v>44585</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="47">
         <v>44586</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="47">
         <v>44587</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="47">
         <v>44591</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="35" t="s">
+      <c r="A42" s="31"/>
+      <c r="B42" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="47">
         <v>44591</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="47">
         <v>44591</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="33"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="49">
+      <c r="D44" s="47">
         <v>44592</v>
       </c>
-      <c r="E44" s="49">
+      <c r="E44" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="49">
+      <c r="E45" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="49">
+      <c r="E46" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="46" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="49">
+      <c r="D47" s="47">
         <v>44592</v>
       </c>
-      <c r="E47" s="49">
+      <c r="E47" s="47">
         <v>44592</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="46" t="s">
+      <c r="A48" s="31"/>
+      <c r="B48" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="47">
         <v>44592</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="47">
         <v>44592</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="46" t="s">
+      <c r="A49" s="31"/>
+      <c r="B49" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D49" s="47">
         <v>44592</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="47">
         <v>44592</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="46" t="s">
+      <c r="A50" s="31"/>
+      <c r="B50" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="49">
+      <c r="D50" s="47">
         <v>44592</v>
       </c>
-      <c r="E50" s="49">
+      <c r="E50" s="47">
         <v>44592</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="49">
+      <c r="D51" s="47">
         <v>44647</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E51" s="47">
         <v>44649</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="46"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="44"/>
     </row>
     <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="62" t="s">
+      <c r="A53" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="49">
+      <c r="D53" s="47">
         <v>44572</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="47">
         <v>44572</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="46"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="44"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="46"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="44"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="46"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="44"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="44" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="44" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="65" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="66" t="s">
+      <c r="A64" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="44" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
+    <row r="65" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="68">
+      <c r="A67" s="66">
         <v>2</v>
       </c>
-      <c r="B67" s="69" t="s">
+      <c r="B67" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="70">
+      <c r="D67" s="68">
         <v>44595</v>
       </c>
-      <c r="E67" s="44"/>
+      <c r="E67" s="42"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="49">
+      <c r="C68" s="70"/>
+      <c r="D68" s="47">
         <v>44604</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="47">
         <v>44604</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="36"/>
+      <c r="B69" s="34"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B70" s="71" t="s">
+      <c r="B70" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="49">
+      <c r="C70" s="70"/>
+      <c r="D70" s="47">
         <v>44595</v>
       </c>
-      <c r="E70" s="49">
+      <c r="E70" s="47">
         <v>44599</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="71" t="s">
+      <c r="B71" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="72"/>
-      <c r="D71" s="49">
+      <c r="C71" s="70"/>
+      <c r="D71" s="47">
         <v>44595</v>
       </c>
-      <c r="E71" s="49">
+      <c r="E71" s="47">
         <v>44595</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="36"/>
+      <c r="B72" s="34"/>
     </row>
     <row r="73" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="B73" s="71" t="s">
+      <c r="B73" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="D73" s="75">
+      <c r="D73" s="73">
         <v>44607</v>
       </c>
-      <c r="E73" s="75">
+      <c r="E73" s="73">
         <v>44607</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="D75" s="75">
+      <c r="D75" s="73">
         <v>44607</v>
       </c>
-      <c r="E75" s="75">
+      <c r="E75" s="73">
         <v>44607</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="73" t="s">
+      <c r="A76" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="72"/>
-      <c r="D76" s="75">
+      <c r="C76" s="70"/>
+      <c r="D76" s="73">
         <v>44606</v>
       </c>
-      <c r="E76" s="75">
+      <c r="E76" s="73">
         <v>44607</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="76" t="s">
+      <c r="A77" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="77" t="s">
+      <c r="B77" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="78" t="s">
+      <c r="C77" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="D77" s="79">
+      <c r="D77" s="77">
         <v>44607</v>
       </c>
-      <c r="E77" s="80" t="s">
+      <c r="E77" s="78" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="81" t="s">
+      <c r="A79" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="71" t="s">
+      <c r="B79" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="77" t="s">
+      <c r="C79" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="82"/>
-      <c r="E79" s="83"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="81"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="84" t="s">
+      <c r="A81" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="B81" s="71" t="s">
+      <c r="B81" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="C81" s="85" t="s">
+      <c r="C81" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="D81" s="86">
+      <c r="D81" s="84">
         <v>44646</v>
       </c>
-      <c r="E81" s="86">
+      <c r="E81" s="84">
         <v>44647</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-    </row>
-    <row r="83" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
+    <row r="82" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+    </row>
+    <row r="83" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="40" t="s">
+      <c r="D83" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="39" t="s">
+      <c r="E83" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="87">
+      <c r="A84" s="85">
         <v>3</v>
       </c>
-      <c r="B84" s="88" t="s">
+      <c r="B84" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="89"/>
-      <c r="D84" s="90">
+      <c r="C84" s="87"/>
+      <c r="D84" s="88">
         <v>44608</v>
       </c>
-      <c r="E84" s="91"/>
+      <c r="E84" s="89"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C85" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="D85" s="49">
+      <c r="D85" s="47">
         <v>44608</v>
       </c>
-      <c r="E85" s="49">
+      <c r="E85" s="47">
         <v>44608</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="36"/>
+      <c r="B86" s="34"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="62" t="s">
+      <c r="A87" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="B87" s="92" t="s">
+      <c r="B87" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="C87" s="43"/>
-      <c r="D87" s="86">
+      <c r="C87" s="41"/>
+      <c r="D87" s="84">
         <v>44649</v>
       </c>
-      <c r="E87" s="93"/>
+      <c r="E87" s="91"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="B88" s="92" t="s">
+      <c r="B88" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="43"/>
-      <c r="D88" s="49">
+      <c r="C88" s="41"/>
+      <c r="D88" s="47">
         <v>44649</v>
       </c>
-      <c r="E88" s="49">
+      <c r="E88" s="47">
         <v>44649</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="92" t="s">
+      <c r="B89" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="43"/>
-      <c r="D89" s="49">
+      <c r="C89" s="41"/>
+      <c r="D89" s="47">
         <v>44649</v>
       </c>
-      <c r="E89" s="49">
+      <c r="E89" s="47">
         <v>44651</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="62" t="s">
+      <c r="A90" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="92" t="s">
+      <c r="B90" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="C90" s="43"/>
-      <c r="D90" s="86">
+      <c r="C90" s="41"/>
+      <c r="D90" s="84">
         <v>44651</v>
       </c>
-      <c r="E90" s="86">
+      <c r="E90" s="84">
         <v>44652</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="94" t="s">
+      <c r="B91" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="C91" s="95" t="s">
+      <c r="C91" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="D91" s="49">
+      <c r="D91" s="47">
         <v>44652</v>
       </c>
-      <c r="E91" s="49">
+      <c r="E91" s="47">
         <v>44700</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="36"/>
+      <c r="B92" s="34"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="36"/>
+      <c r="B93" s="34"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="92" t="s">
+      <c r="B94" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="43"/>
-      <c r="D94" s="49">
+      <c r="C94" s="41"/>
+      <c r="D94" s="47">
         <v>44652</v>
       </c>
-      <c r="E94" s="49">
+      <c r="E94" s="47">
         <v>44652</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="49">
+      <c r="D95" s="47">
         <v>44652</v>
       </c>
-      <c r="E95" s="49">
+      <c r="E95" s="47">
         <v>44652</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="92" t="s">
+      <c r="B97" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="43"/>
-      <c r="D97" s="49">
+      <c r="C97" s="41"/>
+      <c r="D97" s="47">
         <v>44654</v>
       </c>
-      <c r="E97" s="49">
+      <c r="E97" s="47">
         <v>44658</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="B99" s="92" t="s">
+      <c r="B99" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="C99" s="43" t="s">
+      <c r="C99" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="D99" s="49">
+      <c r="D99" s="47">
         <v>44654</v>
       </c>
-      <c r="E99" s="49">
+      <c r="E99" s="47">
         <v>44658</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="47" t="s">
+    <row r="100" spans="1:5" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="B100" s="96" t="s">
+      <c r="B100" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="C100" s="92" t="s">
+      <c r="C100" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="D100" s="49">
+      <c r="D100" s="47">
         <v>44658</v>
       </c>
-      <c r="E100" s="49">
+      <c r="E100" s="47">
         <v>44658</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="B102" s="92" t="s">
+      <c r="B102" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="C102" s="43"/>
-      <c r="D102" s="49">
+      <c r="C102" s="41"/>
+      <c r="D102" s="47">
         <v>44652</v>
       </c>
-      <c r="E102" s="49">
+      <c r="E102" s="47">
         <v>44652</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="47" t="s">
+      <c r="A104" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="B104" s="97" t="s">
+      <c r="B104" s="95" t="s">
         <v>202</v>
       </c>
-      <c r="C104" s="43"/>
-      <c r="D104" s="49">
+      <c r="C104" s="41"/>
+      <c r="D104" s="47">
         <v>44649</v>
       </c>
-      <c r="E104" s="49">
+      <c r="E104" s="47">
         <v>44651</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="47" t="s">
+      <c r="A105" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="C105" s="43"/>
-      <c r="D105" s="49">
+      <c r="C105" s="41"/>
+      <c r="D105" s="47">
         <v>44651</v>
       </c>
-      <c r="E105" s="49">
+      <c r="E105" s="47">
         <v>44651</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="C106" s="43"/>
-      <c r="D106" s="49">
+      <c r="C106" s="41"/>
+      <c r="D106" s="47">
         <v>44651</v>
       </c>
-      <c r="E106" s="49">
+      <c r="E106" s="47">
         <v>44651</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="47" t="s">
+      <c r="A107" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="C107" s="43"/>
-      <c r="D107" s="49">
+      <c r="C107" s="41"/>
+      <c r="D107" s="47">
         <v>44649</v>
       </c>
-      <c r="E107" s="49">
+      <c r="E107" s="47">
         <v>44651</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="47" t="s">
+      <c r="A108" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="B108" s="43" t="s">
+      <c r="B108" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="C108" s="43"/>
-      <c r="D108" s="49">
+      <c r="C108" s="41"/>
+      <c r="D108" s="47">
         <v>44649</v>
       </c>
-      <c r="E108" s="49">
+      <c r="E108" s="47">
         <v>44651</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="31"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
+    <row r="110" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="29"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="98">
+      <c r="A111" s="96">
         <v>4</v>
       </c>
-      <c r="B111" s="88" t="s">
+      <c r="B111" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="C111" s="89"/>
-      <c r="D111" s="49">
+      <c r="C111" s="87"/>
+      <c r="D111" s="47">
         <v>44610</v>
       </c>
-      <c r="E111" s="49">
+      <c r="E111" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="47" t="s">
+      <c r="A113" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="C113" s="43" t="s">
+      <c r="C113" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="D113" s="49">
+      <c r="D113" s="47">
         <v>44610</v>
       </c>
-      <c r="E113" s="49">
+      <c r="E113" s="47">
         <v>44610</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="47" t="s">
+      <c r="A114" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="D114" s="49">
+      <c r="D114" s="47">
         <v>44610</v>
       </c>
-      <c r="E114" s="49">
+      <c r="E114" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="99" t="s">
+      <c r="A116" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="B116" s="100" t="s">
+      <c r="B116" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="C116" s="43"/>
-      <c r="D116" s="49">
+      <c r="C116" s="41"/>
+      <c r="D116" s="47">
         <v>44612</v>
       </c>
-      <c r="E116" s="49">
+      <c r="E116" s="47">
         <v>44621</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="47" t="s">
+      <c r="A118" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="C118" s="43" t="s">
+      <c r="C118" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="D118" s="49">
+      <c r="D118" s="47">
         <v>44623</v>
       </c>
-      <c r="E118" s="49">
+      <c r="E118" s="47">
         <v>44623</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="47" t="s">
+      <c r="A119" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="D119" s="49">
+      <c r="D119" s="47">
         <v>44623</v>
       </c>
-      <c r="E119" s="49">
+      <c r="E119" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="47" t="s">
+      <c r="A120" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="D120" s="49">
+      <c r="D120" s="47">
         <v>44631</v>
       </c>
-      <c r="E120" s="49">
+      <c r="E120" s="47">
         <v>44631</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="31"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
+    <row r="122" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="29"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="98">
+      <c r="A123" s="96">
         <v>5</v>
       </c>
-      <c r="B123" s="88" t="s">
+      <c r="B123" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="C123" s="89"/>
-      <c r="D123" s="49">
+      <c r="C123" s="87"/>
+      <c r="D123" s="47">
         <v>44623</v>
       </c>
-      <c r="E123" s="49">
+      <c r="E123" s="47">
         <v>44631</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="47" t="s">
+      <c r="A125" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="B125" s="36" t="s">
+      <c r="B125" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="D125" s="49">
+      <c r="D125" s="47">
         <v>44623</v>
       </c>
-      <c r="E125" s="49">
+      <c r="E125" s="47">
         <v>44623</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="47" t="s">
+      <c r="A126" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="D126" s="49">
+      <c r="D126" s="47">
         <v>44630</v>
       </c>
-      <c r="E126" s="49">
+      <c r="E126" s="47">
         <v>44630</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="47" t="s">
+      <c r="A127" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="B127" s="31" t="s">
+      <c r="B127" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D127" s="49">
+      <c r="D127" s="47">
         <v>44630</v>
       </c>
-      <c r="E127" s="49">
+      <c r="E127" s="47">
         <v>44630</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="47" t="s">
+      <c r="A128" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="D128" s="49">
+      <c r="D128" s="47">
         <v>44630</v>
       </c>
-      <c r="E128" s="49">
+      <c r="E128" s="47">
         <v>44630</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="47" t="s">
+      <c r="A129" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="B129" s="31" t="s">
+      <c r="B129" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="D129" s="49">
+      <c r="D129" s="47">
         <v>44630</v>
       </c>
-      <c r="E129" s="49">
+      <c r="E129" s="47">
         <v>44630</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="47" t="s">
+      <c r="A131" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="B131" s="31" t="s">
+      <c r="B131" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C131" s="31" t="s">
+      <c r="C131" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="D131" s="49">
+      <c r="D131" s="47">
         <v>44623</v>
       </c>
-      <c r="E131" s="49">
+      <c r="E131" s="47">
         <v>44624</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="47" t="s">
+      <c r="A133" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="B133" s="31" t="s">
+      <c r="B133" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="C133" s="31" t="s">
+      <c r="C133" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="D133" s="49">
+      <c r="D133" s="47">
         <v>44630</v>
       </c>
-      <c r="E133" s="49">
+      <c r="E133" s="47">
         <v>44630</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="47" t="s">
+      <c r="A134" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="B134" s="31" t="s">
+      <c r="B134" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="C134" s="43" t="s">
+      <c r="C134" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="D134" s="49">
+      <c r="D134" s="47">
         <v>44623</v>
       </c>
-      <c r="E134" s="49">
+      <c r="E134" s="47">
         <v>44623</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="47" t="s">
+      <c r="A135" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="B135" s="101" t="s">
+      <c r="B135" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="D135" s="49">
+      <c r="D135" s="47">
         <v>44630</v>
       </c>
-      <c r="E135" s="49">
+      <c r="E135" s="47">
         <v>44640</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="47" t="s">
+      <c r="A136" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="D136" s="49">
+      <c r="D136" s="47">
         <v>44630</v>
       </c>
-      <c r="E136" s="49">
+      <c r="E136" s="47">
         <v>44630</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
-      <c r="B138" s="31"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="32"/>
+    <row r="138" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="29"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="98">
+      <c r="A139" s="96">
         <v>6</v>
       </c>
-      <c r="B139" s="40" t="s">
+      <c r="B139" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="C139" s="89"/>
-      <c r="D139" s="49">
+      <c r="C139" s="87"/>
+      <c r="D139" s="47">
         <v>44625</v>
       </c>
-      <c r="E139" s="49">
+      <c r="E139" s="47">
         <v>44625</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="87">
+      <c r="A142" s="85">
         <v>7</v>
       </c>
-      <c r="B142" s="102" t="s">
+      <c r="B142" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="70">
+      <c r="C142" s="41"/>
+      <c r="D142" s="68">
         <v>44631</v>
       </c>
-      <c r="E142" s="45"/>
+      <c r="E142" s="43"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="103" t="s">
+      <c r="A143" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B143" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D143" s="104">
+      <c r="D143" s="102">
         <v>44631</v>
       </c>
-      <c r="E143" s="104">
+      <c r="E143" s="102">
         <v>44631</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="47" t="s">
+      <c r="A144" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="B144" s="35" t="s">
+      <c r="B144" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="D144" s="49">
+      <c r="D144" s="47">
         <v>44631</v>
       </c>
-      <c r="E144" s="49">
+      <c r="E144" s="47">
         <v>44639</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="47" t="s">
+      <c r="A145" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="B145" s="35" t="s">
+      <c r="B145" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="D145" s="49">
+      <c r="D145" s="47">
         <v>44641</v>
       </c>
-      <c r="E145" s="49">
+      <c r="E145" s="47">
         <v>44645</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="47" t="s">
+      <c r="A146" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="B146" s="35" t="s">
+      <c r="B146" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="D146" s="49">
+      <c r="D146" s="47">
         <v>44635</v>
       </c>
-      <c r="E146" s="49">
+      <c r="E146" s="47">
         <v>44639</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="47" t="s">
+      <c r="A147" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="B147" s="35" t="s">
+      <c r="B147" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="C147" s="105" t="s">
+      <c r="C147" s="103" t="s">
         <v>255</v>
       </c>
-      <c r="D147" s="106">
+      <c r="D147" s="104">
         <v>44639</v>
       </c>
-      <c r="E147" s="106">
+      <c r="E147" s="104">
         <v>44639</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="47" t="s">
+      <c r="A148" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="B148" s="107" t="s">
+      <c r="B148" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="C148" s="108"/>
-      <c r="D148" s="49">
+      <c r="C148" s="106"/>
+      <c r="D148" s="47">
         <v>44670</v>
       </c>
-      <c r="E148" s="49">
+      <c r="E148" s="47">
         <v>44670</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="33"/>
-      <c r="B149" s="35"/>
+      <c r="A149" s="31"/>
+      <c r="B149" s="33"/>
     </row>
     <row r="150" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="47" t="s">
+      <c r="A150" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D150" s="49">
+      <c r="D150" s="47">
         <v>44640</v>
       </c>
-      <c r="E150" s="49">
+      <c r="E150" s="47">
         <v>44640</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="33"/>
-      <c r="B151" s="35"/>
+      <c r="A151" s="31"/>
+      <c r="B151" s="33"/>
     </row>
     <row r="152" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="47" t="s">
+      <c r="A152" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="B152" s="35" t="s">
+      <c r="B152" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C152" s="31" t="s">
+      <c r="C152" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="D152" s="49">
+      <c r="D152" s="47">
         <v>44640</v>
       </c>
-      <c r="E152" s="49">
+      <c r="E152" s="47">
         <v>44640</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="62" t="s">
+      <c r="A153" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="B153" s="43" t="s">
+      <c r="B153" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="C153" s="109" t="s">
+      <c r="C153" s="107" t="s">
         <v>264</v>
       </c>
-      <c r="D153" s="86">
+      <c r="D153" s="84">
         <v>44668</v>
       </c>
-      <c r="E153" s="86">
+      <c r="E153" s="84">
         <v>44669</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="110">
+      <c r="A156" s="108">
         <v>8</v>
       </c>
-      <c r="B156" s="111" t="s">
+      <c r="B156" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="C156" s="43"/>
-      <c r="D156" s="44">
+      <c r="C156" s="41"/>
+      <c r="D156" s="42">
         <v>44645</v>
       </c>
-      <c r="E156" s="45"/>
+      <c r="E156" s="43"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="103" t="s">
+      <c r="A157" s="101" t="s">
         <v>265</v>
       </c>
-      <c r="B157" s="112" t="s">
+      <c r="B157" s="110" t="s">
         <v>266</v>
       </c>
-      <c r="C157" s="43" t="s">
+      <c r="C157" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="D157" s="49">
+      <c r="D157" s="47">
         <v>44646</v>
       </c>
-      <c r="E157" s="49">
+      <c r="E157" s="47">
         <v>44668</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="113" t="s">
+      <c r="A158" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B158" s="114" t="s">
+      <c r="B158" s="112" t="s">
         <v>269</v>
       </c>
-      <c r="C158" s="72"/>
-      <c r="D158" s="115">
+      <c r="C158" s="70"/>
+      <c r="D158" s="113">
         <v>44646</v>
       </c>
-      <c r="E158" s="86">
+      <c r="E158" s="84">
         <v>44659</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="6"/>
+      <c r="B159" s="4"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="47" t="s">
+      <c r="A160" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="B160" s="112" t="s">
+      <c r="B160" s="110" t="s">
         <v>271</v>
       </c>
-      <c r="C160" s="92" t="s">
+      <c r="C160" s="90" t="s">
         <v>272</v>
       </c>
-      <c r="D160" s="49">
+      <c r="D160" s="47">
         <v>44659</v>
       </c>
-      <c r="E160" s="49">
+      <c r="E160" s="47">
         <v>44665</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="62" t="s">
+      <c r="A161" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="B161" s="112" t="s">
+      <c r="B161" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="C161" s="116" t="s">
+      <c r="C161" s="114" t="s">
         <v>275</v>
       </c>
-      <c r="D161" s="44">
+      <c r="D161" s="42">
         <v>44659</v>
       </c>
-      <c r="E161" s="45"/>
+      <c r="E161" s="43"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C162" s="92" t="s">
+      <c r="C162" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="128">
         <v>44666</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="129">
         <v>44668</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B163" s="117" t="s">
+      <c r="B163" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C163" s="107" t="s">
+      <c r="C163" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="D163" s="2"/>
-      <c r="E163" s="1"/>
+      <c r="D163" s="128"/>
+      <c r="E163" s="129"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="118" t="s">
+      <c r="A164" s="130" t="s">
         <v>279</v>
       </c>
-      <c r="B164" s="119" t="s">
+      <c r="B164" s="139" t="s">
         <v>280</v>
       </c>
-      <c r="C164" s="120" t="s">
+      <c r="C164" s="140" t="s">
         <v>281</v>
       </c>
-      <c r="D164" s="44">
+      <c r="D164" s="132">
         <v>44668</v>
       </c>
-      <c r="E164" s="45"/>
+      <c r="E164" s="132">
+        <v>44705</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="6"/>
+      <c r="B165" s="4"/>
     </row>
     <row r="166" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="118" t="s">
+      <c r="A166" s="130" t="s">
         <v>282</v>
       </c>
-      <c r="B166" s="121" t="s">
+      <c r="B166" s="137" t="s">
         <v>283</v>
       </c>
-      <c r="C166" s="122" t="s">
+      <c r="C166" s="116" t="s">
         <v>284</v>
       </c>
-      <c r="D166" s="93">
+      <c r="D166" s="138">
         <v>44665</v>
       </c>
-      <c r="E166" s="45"/>
+      <c r="E166" s="132">
+        <v>44705</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="47" t="s">
+      <c r="A167" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="B167" s="92" t="s">
+      <c r="B167" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="C167" s="123" t="s">
+      <c r="C167" s="117" t="s">
         <v>287</v>
       </c>
-      <c r="D167" s="49">
+      <c r="D167" s="47">
         <v>44697</v>
       </c>
-      <c r="E167" s="49">
+      <c r="E167" s="47">
         <v>44698</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="47" t="s">
+      <c r="A168" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="B168" s="92" t="s">
+      <c r="B168" s="90" t="s">
         <v>289</v>
       </c>
-      <c r="C168" s="123" t="s">
+      <c r="C168" s="117" t="s">
         <v>290</v>
       </c>
-      <c r="D168" s="49">
+      <c r="D168" s="47">
         <v>44698</v>
       </c>
-      <c r="E168" s="49">
+      <c r="E168" s="47">
         <v>44699</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="47" t="s">
+      <c r="A169" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="B169" s="92" t="s">
+      <c r="B169" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="C169" s="123" t="s">
+      <c r="C169" s="117" t="s">
         <v>293</v>
       </c>
-      <c r="D169" s="49">
+      <c r="D169" s="47">
         <v>44699</v>
       </c>
-      <c r="E169" s="49">
+      <c r="E169" s="47">
         <v>44699</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="92"/>
-      <c r="C170" s="123"/>
-      <c r="D170" s="93"/>
-      <c r="E170" s="45"/>
+      <c r="B170" s="90"/>
+      <c r="C170" s="117"/>
+      <c r="D170" s="91"/>
+      <c r="E170" s="43"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="62" t="s">
+      <c r="A171" s="141" t="s">
         <v>294</v>
       </c>
-      <c r="B171" s="92" t="s">
+      <c r="B171" s="90" t="s">
         <v>295</v>
       </c>
-      <c r="C171" s="123" t="s">
+      <c r="C171" s="117" t="s">
         <v>290</v>
       </c>
-      <c r="D171" s="86">
+      <c r="D171" s="142">
         <v>44698</v>
       </c>
-      <c r="E171" s="45"/>
+      <c r="E171" s="132">
+        <v>44705</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="47" t="s">
+      <c r="A172" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="B172" s="92" t="s">
+      <c r="B172" s="90" t="s">
         <v>297</v>
       </c>
-      <c r="C172" s="123"/>
-      <c r="D172" s="49">
+      <c r="C172" s="117"/>
+      <c r="D172" s="47">
         <v>44698</v>
       </c>
-      <c r="E172" s="49">
+      <c r="E172" s="47">
         <v>44699</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="47" t="s">
+      <c r="A173" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="B173" s="92" t="s">
+      <c r="B173" s="90" t="s">
         <v>299</v>
       </c>
-      <c r="C173" s="123"/>
-      <c r="D173" s="49">
+      <c r="C173" s="117"/>
+      <c r="D173" s="47">
         <v>44699</v>
       </c>
-      <c r="E173" s="49">
+      <c r="E173" s="47">
         <v>44699</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="47" t="s">
+      <c r="A174" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="B174" s="92" t="s">
+      <c r="B174" s="90" t="s">
         <v>301</v>
       </c>
-      <c r="C174" s="124"/>
-      <c r="D174" s="49">
+      <c r="C174" s="118"/>
+      <c r="D174" s="47">
         <v>44699</v>
       </c>
-      <c r="E174" s="49">
+      <c r="E174" s="47">
         <v>44699</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="62" t="s">
+      <c r="A175" s="141" t="s">
         <v>302</v>
       </c>
-      <c r="B175" s="92" t="s">
+      <c r="B175" s="90" t="s">
         <v>303</v>
       </c>
-      <c r="C175" s="123" t="s">
+      <c r="C175" s="117" t="s">
         <v>304</v>
       </c>
-      <c r="D175" s="86">
+      <c r="D175" s="142">
         <v>44699</v>
       </c>
-      <c r="E175" s="45"/>
+      <c r="E175" s="47">
+        <v>44699</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="92"/>
-      <c r="C176" s="123"/>
-      <c r="D176" s="93"/>
-      <c r="E176" s="45"/>
+      <c r="B176" s="90"/>
+      <c r="C176" s="117"/>
+      <c r="D176" s="91"/>
+      <c r="E176" s="43"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="118" t="s">
+      <c r="A177" s="130" t="s">
         <v>305</v>
       </c>
-      <c r="B177" s="119" t="s">
+      <c r="B177" s="139" t="s">
         <v>306</v>
       </c>
-      <c r="C177" s="120" t="s">
+      <c r="C177" s="140" t="s">
         <v>281</v>
       </c>
-      <c r="D177" s="44">
+      <c r="D177" s="132">
         <v>44668</v>
       </c>
-      <c r="E177" s="45"/>
+      <c r="E177" s="132">
+        <v>44705</v>
+      </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="92"/>
-      <c r="C178" s="108"/>
-      <c r="D178" s="93"/>
-      <c r="E178" s="45"/>
+      <c r="B178" s="90"/>
+      <c r="C178" s="106"/>
+      <c r="D178" s="91"/>
+      <c r="E178" s="43"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="62" t="s">
+      <c r="A179" s="141" t="s">
         <v>307</v>
       </c>
-      <c r="B179" s="112" t="s">
+      <c r="B179" s="110" t="s">
         <v>308</v>
       </c>
-      <c r="C179" s="92" t="s">
+      <c r="C179" s="90" t="s">
         <v>309</v>
       </c>
-      <c r="D179" s="86">
+      <c r="D179" s="142">
         <v>44665</v>
       </c>
-      <c r="E179" s="86">
+      <c r="E179" s="142">
         <v>44668</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="118" t="s">
+      <c r="A180" s="130" t="s">
         <v>310</v>
       </c>
-      <c r="B180" s="119" t="s">
+      <c r="B180" s="139" t="s">
         <v>311</v>
       </c>
-      <c r="C180" s="120" t="s">
+      <c r="C180" s="140" t="s">
         <v>281</v>
       </c>
-      <c r="D180" s="44">
+      <c r="D180" s="132">
         <v>44668</v>
       </c>
-      <c r="E180" s="45"/>
+      <c r="E180" s="132">
+        <v>44705</v>
+      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="6"/>
+      <c r="B181" s="4"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="62" t="s">
+      <c r="A182" s="143" t="s">
         <v>312</v>
       </c>
-      <c r="B182" s="112" t="s">
+      <c r="B182" s="110" t="s">
         <v>313</v>
       </c>
-      <c r="C182" s="125" t="s">
+      <c r="C182" s="119" t="s">
         <v>314</v>
       </c>
-      <c r="D182" s="86">
+      <c r="D182" s="144">
         <v>44665</v>
       </c>
-      <c r="E182" s="86">
+      <c r="E182" s="144">
         <v>44671</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="118" t="s">
+      <c r="A183" s="130" t="s">
         <v>315</v>
       </c>
-      <c r="B183" s="119" t="s">
+      <c r="B183" s="139" t="s">
         <v>316</v>
       </c>
-      <c r="C183" s="120" t="s">
+      <c r="C183" s="140" t="s">
         <v>281</v>
       </c>
-      <c r="D183" s="44">
+      <c r="D183" s="132">
         <v>44668</v>
       </c>
-      <c r="E183" s="45"/>
+      <c r="E183" s="132">
+        <v>44705</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B184" s="6"/>
+      <c r="B184" s="4"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="62" t="s">
+      <c r="A185" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="B185" s="126" t="s">
+      <c r="B185" s="120" t="s">
         <v>318</v>
       </c>
-      <c r="C185" s="127" t="s">
+      <c r="C185" s="121" t="s">
         <v>319</v>
       </c>
-      <c r="D185" s="86">
+      <c r="D185" s="84">
         <v>44665</v>
       </c>
-      <c r="E185" s="86">
+      <c r="E185" s="84">
         <v>44693</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="47" t="s">
+      <c r="A186" s="45" t="s">
         <v>320</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="110" t="s">
         <v>321</v>
       </c>
-      <c r="D186" s="49">
+      <c r="C186" s="41"/>
+      <c r="D186" s="47">
         <v>44665</v>
       </c>
-      <c r="E186" s="49">
+      <c r="E186" s="47">
         <v>44685</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="47" t="s">
+      <c r="A187" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="110" t="s">
         <v>323</v>
       </c>
-      <c r="D187" s="49">
+      <c r="C187" s="41"/>
+      <c r="D187" s="47">
         <v>44665</v>
       </c>
-      <c r="E187" s="49">
+      <c r="E187" s="47">
         <v>44685</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="47" t="s">
+      <c r="A188" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="110" t="s">
         <v>325</v>
       </c>
-      <c r="D188" s="49">
+      <c r="C188" s="41"/>
+      <c r="D188" s="47">
         <v>44665</v>
       </c>
-      <c r="E188" s="49">
+      <c r="E188" s="47">
         <v>44685</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="47" t="s">
+      <c r="A189" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="110" t="s">
         <v>327</v>
       </c>
-      <c r="D189" s="49">
+      <c r="C189" s="41"/>
+      <c r="D189" s="47">
         <v>44665</v>
       </c>
-      <c r="E189" s="49">
+      <c r="E189" s="47">
         <v>44685</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="47" t="s">
+      <c r="A190" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="110" t="s">
         <v>329</v>
       </c>
-      <c r="D190" s="49">
+      <c r="C190" s="41"/>
+      <c r="D190" s="47">
         <v>44685</v>
       </c>
-      <c r="E190" s="49">
+      <c r="E190" s="47">
         <v>44686</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="128" t="s">
+      <c r="A191" s="122" t="s">
         <v>330</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="110" t="s">
         <v>331</v>
       </c>
-      <c r="C191" s="129" t="s">
+      <c r="C191" s="149" t="s">
         <v>332</v>
       </c>
-      <c r="D191" s="130">
+      <c r="D191" s="145">
         <v>44686</v>
       </c>
+      <c r="E191" s="43"/>
     </row>
     <row r="192" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="47" t="s">
+      <c r="A192" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="B192" s="112" t="s">
+      <c r="B192" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="C192" s="92" t="s">
+      <c r="C192" s="90" t="s">
         <v>335</v>
       </c>
-      <c r="D192" s="49">
+      <c r="D192" s="47">
         <v>44686</v>
       </c>
-      <c r="E192" s="49">
+      <c r="E192" s="47">
         <v>44693</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="47" t="s">
+      <c r="A193" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="B193" s="112" t="s">
+      <c r="B193" s="110" t="s">
         <v>337</v>
       </c>
-      <c r="C193" s="92"/>
-      <c r="D193" s="49">
+      <c r="C193" s="90"/>
+      <c r="D193" s="47">
         <v>44693</v>
       </c>
-      <c r="E193" s="49">
+      <c r="E193" s="47">
         <v>44693</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="47" t="s">
+      <c r="A194" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="B194" s="114" t="s">
+      <c r="B194" s="112" t="s">
         <v>339</v>
       </c>
-      <c r="C194" s="72"/>
-      <c r="D194" s="75">
+      <c r="C194" s="70"/>
+      <c r="D194" s="73">
         <v>44686</v>
       </c>
-      <c r="E194" s="75">
+      <c r="E194" s="73">
         <v>44687</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="47" t="s">
+      <c r="A195" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="B195" s="114" t="s">
+      <c r="B195" s="146" t="s">
         <v>341</v>
       </c>
-      <c r="C195" s="131" t="s">
+      <c r="C195" s="123" t="s">
         <v>342</v>
       </c>
-      <c r="D195" s="49">
+      <c r="D195" s="104">
         <v>44700</v>
       </c>
-      <c r="E195" s="49">
+      <c r="E195" s="104">
         <v>44700</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="128" t="s">
+      <c r="A196" s="122" t="s">
         <v>343</v>
       </c>
-      <c r="B196" s="114" t="s">
+      <c r="B196" s="110" t="s">
         <v>344</v>
       </c>
-      <c r="C196" s="132" t="s">
+      <c r="C196" s="149" t="s">
         <v>332</v>
       </c>
-      <c r="D196" s="83"/>
-      <c r="E196" s="83"/>
+      <c r="D196" s="43"/>
+      <c r="E196" s="43"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="47" t="s">
+      <c r="A197" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="B197" s="114" t="s">
+      <c r="B197" s="110" t="s">
         <v>346</v>
       </c>
-      <c r="C197" s="133" t="s">
+      <c r="C197" s="147" t="s">
         <v>347</v>
       </c>
-      <c r="D197" s="83"/>
-      <c r="E197" s="83"/>
+      <c r="D197" s="43"/>
+      <c r="E197" s="47">
+        <v>44699</v>
+      </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="128" t="s">
+      <c r="A198" s="122" t="s">
         <v>348</v>
       </c>
-      <c r="B198" s="114" t="s">
+      <c r="B198" s="110" t="s">
         <v>349</v>
       </c>
-      <c r="C198" s="132" t="s">
+      <c r="C198" s="149" t="s">
         <v>332</v>
       </c>
-      <c r="D198" s="134"/>
-      <c r="E198" s="134"/>
+      <c r="D198" s="91"/>
+      <c r="E198" s="91"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="6"/>
+      <c r="B199" s="4"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="47" t="s">
+      <c r="A200" s="45" t="s">
         <v>350</v>
       </c>
-      <c r="B200" s="112" t="s">
+      <c r="B200" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="C200" s="92" t="s">
+      <c r="C200" s="90" t="s">
         <v>352</v>
       </c>
-      <c r="D200" s="49">
+      <c r="D200" s="47">
         <v>44670</v>
       </c>
-      <c r="E200" s="49">
+      <c r="E200" s="47">
         <v>44670</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="6"/>
+      <c r="B201" s="4"/>
     </row>
     <row r="202" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="47" t="s">
+      <c r="A202" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="B202" s="112" t="s">
+      <c r="B202" s="110" t="s">
         <v>354</v>
       </c>
-      <c r="C202" s="96" t="s">
+      <c r="C202" s="94" t="s">
         <v>355</v>
       </c>
-      <c r="D202" s="49">
+      <c r="D202" s="47">
         <v>44659</v>
       </c>
-      <c r="E202" s="49">
+      <c r="E202" s="47">
         <v>44665</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="6"/>
+      <c r="B203" s="4"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="135" t="s">
+      <c r="A204" s="134" t="s">
         <v>356</v>
       </c>
-      <c r="B204" s="112" t="s">
+      <c r="B204" s="110" t="s">
         <v>357</v>
       </c>
-      <c r="C204" s="43" t="s">
+      <c r="C204" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="D204" s="136">
+      <c r="D204" s="135">
         <v>44668</v>
       </c>
-      <c r="E204" s="45"/>
+      <c r="E204" s="136">
+        <v>44705</v>
+      </c>
     </row>
     <row r="205" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="128" t="s">
+      <c r="A205" s="122" t="s">
         <v>359</v>
       </c>
-      <c r="B205" s="137" t="s">
+      <c r="B205" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="C205" s="78" t="s">
+      <c r="C205" s="148" t="s">
         <v>372</v>
       </c>
-      <c r="D205" s="93"/>
+      <c r="D205" s="91"/>
+      <c r="E205" s="43"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="6"/>
+      <c r="B206" s="4"/>
     </row>
     <row r="207" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="118" t="s">
+      <c r="A207" s="130" t="s">
         <v>361</v>
       </c>
-      <c r="B207" s="121" t="s">
+      <c r="B207" s="137" t="s">
         <v>362</v>
       </c>
-      <c r="C207" s="141" t="s">
+      <c r="C207" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D207" s="44">
+      <c r="D207" s="132">
         <v>44701</v>
       </c>
-      <c r="E207" s="45"/>
+      <c r="E207" s="132">
+        <v>44705</v>
+      </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B208" s="6"/>
+      <c r="B208" s="4"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="135" t="s">
+      <c r="A209" s="133" t="s">
         <v>363</v>
       </c>
-      <c r="B209" s="112" t="s">
+      <c r="B209" s="110" t="s">
         <v>364</v>
       </c>
-      <c r="C209" s="43"/>
-      <c r="D209" s="45"/>
-      <c r="E209" s="45"/>
+      <c r="C209" s="41"/>
+      <c r="D209" s="132">
+        <v>44705</v>
+      </c>
+      <c r="E209" s="132">
+        <v>44705</v>
+      </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B210" s="6"/>
+      <c r="B210" s="4"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B211" s="6"/>
+      <c r="B211" s="4"/>
     </row>
     <row r="212" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A212" s="62" t="s">
+      <c r="A212" s="60" t="s">
         <v>365</v>
       </c>
-      <c r="B212" s="112" t="s">
+      <c r="B212" s="110" t="s">
         <v>366</v>
       </c>
-      <c r="C212" s="138" t="s">
+      <c r="C212" s="125" t="s">
         <v>367</v>
       </c>
-      <c r="D212" s="86">
+      <c r="D212" s="84">
         <v>44668</v>
       </c>
-      <c r="E212" s="86">
+      <c r="E212" s="84">
         <v>44668</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A215" s="139">
+      <c r="A215" s="126">
         <v>9</v>
       </c>
-      <c r="B215" s="111" t="s">
+      <c r="B215" s="109" t="s">
         <v>368</v>
       </c>
-      <c r="C215" s="43"/>
-      <c r="D215" s="45"/>
-      <c r="E215" s="45"/>
+      <c r="C215" s="41"/>
+      <c r="D215" s="43"/>
+      <c r="E215" s="43"/>
     </row>
     <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="140" t="s">
+      <c r="A216" s="127" t="s">
         <v>369</v>
       </c>
-      <c r="B216" s="25" t="s">
+      <c r="B216" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
-      <c r="B217" s="6" t="s">
+      <c r="A217" s="1"/>
+      <c r="B217" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
-      <c r="B218" s="6" t="s">
+      <c r="A218" s="1"/>
+      <c r="B218" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="6" t="s">
+      <c r="A219" s="1"/>
+      <c r="B219" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="7"/>
+      <c r="A220" s="1"/>
+      <c r="B220" s="5"/>
     </row>
     <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A221" s="29" t="s">
+      <c r="A221" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="B221" s="25" t="s">
+      <c r="B221" s="23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="6" t="s">
+      <c r="A222" s="1"/>
+      <c r="B222" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-      <c r="B223" s="6" t="s">
+      <c r="A223" s="1"/>
+      <c r="B223" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-      <c r="B224" s="6" t="s">
+      <c r="A224" s="1"/>
+      <c r="B224" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
-      <c r="B225" s="6" t="s">
+      <c r="A225" s="1"/>
+      <c r="B225" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
-      <c r="B226" s="6" t="s">
+      <c r="A226" s="1"/>
+      <c r="B226" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
-      <c r="B227" s="6" t="s">
+      <c r="A227" s="1"/>
+      <c r="B227" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
-      <c r="B228" s="6" t="s">
+      <c r="A228" s="1"/>
+      <c r="B228" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
-      <c r="B229" s="6" t="s">
+      <c r="A229" s="1"/>
+      <c r="B229" s="4" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Курсовая работа.xlsx
+++ b/Курсовая работа.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="388">
   <si>
     <t>1.1 Курсовая работа</t>
   </si>
@@ -1630,6 +1630,85 @@
       <t>Пока макс.кол-во ссылок - 10 шт. (поле Pagination::$max = 10)</t>
     </r>
   </si>
+  <si>
+    <t>Любой пользователь может подписать свой email на получение уведомлений о появлении новой статьи на сайте.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Блок “Подписаться” содержит поле email (для неавторизованного пользователя) и кнопку “Подписаться”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">При нажатии на кнопку, указанный email добавляется в список рассылок. </t>
+  </si>
+  <si>
+    <t>Для авторизованного пользователя поле email скрывается и подставляется автоматически его email.</t>
+  </si>
+  <si>
+    <t>9.1.1</t>
+  </si>
+  <si>
+    <t>9.1.2</t>
+  </si>
+  <si>
+    <t>9.1.3</t>
+  </si>
+  <si>
+    <t>9.1.4</t>
+  </si>
+  <si>
+    <t>9.1.5</t>
+  </si>
+  <si>
+    <t>9.1.6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сделать на главной странице кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"Подписаться на рассылку" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>для неавторизованных полбзователей.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Отдельная страница</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> /view/subsription.php</t>
+    </r>
+  </si>
+  <si>
+    <t>Есть в ЛК, но сделать и с Главной.</t>
+  </si>
+  <si>
+    <t>В ЛК уже есть, надо сделать  ссылку в письме рассылки.</t>
+  </si>
+  <si>
+    <t>БД: unreg_user, users::subscription</t>
+  </si>
 </sst>
 </file>
 
@@ -1639,7 +1718,7 @@
     <numFmt numFmtId="164" formatCode="[$-419]dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1865,6 +1944,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="22">
     <fill>
@@ -2086,7 +2178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2443,70 +2535,73 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3364,10 +3459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AMK229"/>
+  <dimension ref="A2:AMK232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A211" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5012,10 +5107,10 @@
       <c r="C162" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="D162" s="128">
+      <c r="D162" s="148">
         <v>44666</v>
       </c>
-      <c r="E162" s="129">
+      <c r="E162" s="149">
         <v>44668</v>
       </c>
     </row>
@@ -5026,23 +5121,23 @@
       <c r="C163" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="D163" s="128"/>
-      <c r="E163" s="129"/>
+      <c r="D163" s="148"/>
+      <c r="E163" s="149"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="130" t="s">
+      <c r="A164" s="128" t="s">
         <v>279</v>
       </c>
-      <c r="B164" s="139" t="s">
+      <c r="B164" s="137" t="s">
         <v>280</v>
       </c>
-      <c r="C164" s="140" t="s">
+      <c r="C164" s="138" t="s">
         <v>281</v>
       </c>
-      <c r="D164" s="132">
+      <c r="D164" s="130">
         <v>44668</v>
       </c>
-      <c r="E164" s="132">
+      <c r="E164" s="130">
         <v>44705</v>
       </c>
     </row>
@@ -5050,19 +5145,19 @@
       <c r="B165" s="4"/>
     </row>
     <row r="166" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="130" t="s">
+      <c r="A166" s="128" t="s">
         <v>282</v>
       </c>
-      <c r="B166" s="137" t="s">
+      <c r="B166" s="135" t="s">
         <v>283</v>
       </c>
       <c r="C166" s="116" t="s">
         <v>284</v>
       </c>
-      <c r="D166" s="138">
+      <c r="D166" s="136">
         <v>44665</v>
       </c>
-      <c r="E166" s="132">
+      <c r="E166" s="130">
         <v>44705</v>
       </c>
     </row>
@@ -5124,7 +5219,7 @@
       <c r="E170" s="43"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="141" t="s">
+      <c r="A171" s="139" t="s">
         <v>294</v>
       </c>
       <c r="B171" s="90" t="s">
@@ -5133,10 +5228,10 @@
       <c r="C171" s="117" t="s">
         <v>290</v>
       </c>
-      <c r="D171" s="142">
+      <c r="D171" s="140">
         <v>44698</v>
       </c>
-      <c r="E171" s="132">
+      <c r="E171" s="130">
         <v>44705</v>
       </c>
     </row>
@@ -5186,7 +5281,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="141" t="s">
+      <c r="A175" s="139" t="s">
         <v>302</v>
       </c>
       <c r="B175" s="90" t="s">
@@ -5195,7 +5290,7 @@
       <c r="C175" s="117" t="s">
         <v>304</v>
       </c>
-      <c r="D175" s="142">
+      <c r="D175" s="140">
         <v>44699</v>
       </c>
       <c r="E175" s="47">
@@ -5209,19 +5304,19 @@
       <c r="E176" s="43"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="130" t="s">
+      <c r="A177" s="128" t="s">
         <v>305</v>
       </c>
-      <c r="B177" s="139" t="s">
+      <c r="B177" s="137" t="s">
         <v>306</v>
       </c>
-      <c r="C177" s="140" t="s">
+      <c r="C177" s="138" t="s">
         <v>281</v>
       </c>
-      <c r="D177" s="132">
+      <c r="D177" s="130">
         <v>44668</v>
       </c>
-      <c r="E177" s="132">
+      <c r="E177" s="130">
         <v>44705</v>
       </c>
     </row>
@@ -5232,7 +5327,7 @@
       <c r="E178" s="43"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="141" t="s">
+      <c r="A179" s="139" t="s">
         <v>307</v>
       </c>
       <c r="B179" s="110" t="s">
@@ -5241,27 +5336,27 @@
       <c r="C179" s="90" t="s">
         <v>309</v>
       </c>
-      <c r="D179" s="142">
+      <c r="D179" s="140">
         <v>44665</v>
       </c>
-      <c r="E179" s="142">
+      <c r="E179" s="140">
         <v>44668</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="130" t="s">
+      <c r="A180" s="128" t="s">
         <v>310</v>
       </c>
-      <c r="B180" s="139" t="s">
+      <c r="B180" s="137" t="s">
         <v>311</v>
       </c>
-      <c r="C180" s="140" t="s">
+      <c r="C180" s="138" t="s">
         <v>281</v>
       </c>
-      <c r="D180" s="132">
+      <c r="D180" s="130">
         <v>44668</v>
       </c>
-      <c r="E180" s="132">
+      <c r="E180" s="130">
         <v>44705</v>
       </c>
     </row>
@@ -5269,7 +5364,7 @@
       <c r="B181" s="4"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="143" t="s">
+      <c r="A182" s="141" t="s">
         <v>312</v>
       </c>
       <c r="B182" s="110" t="s">
@@ -5278,27 +5373,27 @@
       <c r="C182" s="119" t="s">
         <v>314</v>
       </c>
-      <c r="D182" s="144">
+      <c r="D182" s="142">
         <v>44665</v>
       </c>
-      <c r="E182" s="144">
+      <c r="E182" s="142">
         <v>44671</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="130" t="s">
+      <c r="A183" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="B183" s="139" t="s">
+      <c r="B183" s="137" t="s">
         <v>316</v>
       </c>
-      <c r="C183" s="140" t="s">
+      <c r="C183" s="138" t="s">
         <v>281</v>
       </c>
-      <c r="D183" s="132">
+      <c r="D183" s="130">
         <v>44668</v>
       </c>
-      <c r="E183" s="132">
+      <c r="E183" s="130">
         <v>44705</v>
       </c>
     </row>
@@ -5404,10 +5499,10 @@
       <c r="B191" s="110" t="s">
         <v>331</v>
       </c>
-      <c r="C191" s="149" t="s">
+      <c r="C191" s="147" t="s">
         <v>332</v>
       </c>
-      <c r="D191" s="145">
+      <c r="D191" s="143">
         <v>44686</v>
       </c>
       <c r="E191" s="43"/>
@@ -5463,7 +5558,7 @@
       <c r="A195" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="B195" s="146" t="s">
+      <c r="B195" s="144" t="s">
         <v>341</v>
       </c>
       <c r="C195" s="123" t="s">
@@ -5483,7 +5578,7 @@
       <c r="B196" s="110" t="s">
         <v>344</v>
       </c>
-      <c r="C196" s="149" t="s">
+      <c r="C196" s="147" t="s">
         <v>332</v>
       </c>
       <c r="D196" s="43"/>
@@ -5496,7 +5591,7 @@
       <c r="B197" s="110" t="s">
         <v>346</v>
       </c>
-      <c r="C197" s="147" t="s">
+      <c r="C197" s="145" t="s">
         <v>347</v>
       </c>
       <c r="D197" s="43"/>
@@ -5511,7 +5606,7 @@
       <c r="B198" s="110" t="s">
         <v>349</v>
       </c>
-      <c r="C198" s="149" t="s">
+      <c r="C198" s="147" t="s">
         <v>332</v>
       </c>
       <c r="D198" s="91"/>
@@ -5561,7 +5656,7 @@
       <c r="B203" s="4"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="134" t="s">
+      <c r="A204" s="132" t="s">
         <v>356</v>
       </c>
       <c r="B204" s="110" t="s">
@@ -5570,10 +5665,10 @@
       <c r="C204" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="D204" s="135">
+      <c r="D204" s="133">
         <v>44668</v>
       </c>
-      <c r="E204" s="136">
+      <c r="E204" s="134">
         <v>44705</v>
       </c>
     </row>
@@ -5584,7 +5679,7 @@
       <c r="B205" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="C205" s="148" t="s">
+      <c r="C205" s="146" t="s">
         <v>372</v>
       </c>
       <c r="D205" s="91"/>
@@ -5594,19 +5689,19 @@
       <c r="B206" s="4"/>
     </row>
     <row r="207" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="130" t="s">
+      <c r="A207" s="128" t="s">
         <v>361</v>
       </c>
-      <c r="B207" s="137" t="s">
+      <c r="B207" s="135" t="s">
         <v>362</v>
       </c>
-      <c r="C207" s="131" t="s">
+      <c r="C207" s="129" t="s">
         <v>371</v>
       </c>
-      <c r="D207" s="132">
+      <c r="D207" s="130">
         <v>44701</v>
       </c>
-      <c r="E207" s="132">
+      <c r="E207" s="130">
         <v>44705</v>
       </c>
     </row>
@@ -5614,17 +5709,17 @@
       <c r="B208" s="4"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="133" t="s">
+      <c r="A209" s="131" t="s">
         <v>363</v>
       </c>
       <c r="B209" s="110" t="s">
         <v>364</v>
       </c>
       <c r="C209" s="41"/>
-      <c r="D209" s="132">
+      <c r="D209" s="130">
         <v>44705</v>
       </c>
-      <c r="E209" s="132">
+      <c r="E209" s="130">
         <v>44705</v>
       </c>
     </row>
@@ -5659,92 +5754,159 @@
         <v>368</v>
       </c>
       <c r="C215" s="41"/>
-      <c r="D215" s="43"/>
+      <c r="D215" s="42">
+        <v>44706</v>
+      </c>
       <c r="E215" s="43"/>
     </row>
     <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A216" s="127" t="s">
         <v>369</v>
       </c>
-      <c r="B216" s="23" t="s">
+      <c r="B216" s="57" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="4" t="s">
+      <c r="C216" s="41"/>
+      <c r="D216" s="42">
+        <v>44706</v>
+      </c>
+      <c r="E216" s="43"/>
+    </row>
+    <row r="217" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A217" s="127" t="s">
+        <v>377</v>
+      </c>
+      <c r="B217" s="110" t="s">
+        <v>373</v>
+      </c>
+      <c r="C217" s="150" t="s">
+        <v>383</v>
+      </c>
+      <c r="D217" s="42">
+        <v>44706</v>
+      </c>
+      <c r="E217" s="43"/>
+    </row>
+    <row r="218" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="127" t="s">
+        <v>378</v>
+      </c>
+      <c r="B218" s="110" t="s">
+        <v>374</v>
+      </c>
+      <c r="C218" s="105" t="s">
+        <v>384</v>
+      </c>
+      <c r="D218" s="43"/>
+      <c r="E218" s="43"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="127" t="s">
+        <v>379</v>
+      </c>
+      <c r="B219" s="110" t="s">
+        <v>375</v>
+      </c>
+      <c r="C219" s="105" t="s">
+        <v>387</v>
+      </c>
+      <c r="D219" s="43"/>
+      <c r="E219" s="43"/>
+    </row>
+    <row r="220" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="127" t="s">
+        <v>380</v>
+      </c>
+      <c r="B220" s="110" t="s">
+        <v>376</v>
+      </c>
+      <c r="C220" s="105" t="s">
+        <v>385</v>
+      </c>
+      <c r="D220" s="43"/>
+      <c r="E220" s="43"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="127" t="s">
+        <v>381</v>
+      </c>
+      <c r="B221" s="110" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="4" t="s">
+      <c r="C221" s="105"/>
+      <c r="D221" s="43"/>
+      <c r="E221" s="43"/>
+    </row>
+    <row r="222" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="127" t="s">
+        <v>382</v>
+      </c>
+      <c r="B222" s="110" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="5"/>
-    </row>
-    <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A221" s="27" t="s">
+      <c r="C222" s="105" t="s">
+        <v>386</v>
+      </c>
+      <c r="D222" s="43"/>
+      <c r="E222" s="43"/>
+    </row>
+    <row r="223" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="5"/>
+    </row>
+    <row r="224" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A224" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="B221" s="23" t="s">
+      <c r="B224" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="4" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Курсовая работа.xlsx
+++ b/Курсовая работа.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="396">
   <si>
     <t>1.1 Курсовая работа</t>
   </si>
@@ -1662,30 +1662,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Сделать на главной странице кнопку </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"Подписаться на рассылку" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>для неавторизованных полбзователей.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Отдельная страница</t>
     </r>
     <r>
@@ -1708,6 +1684,45 @@
   </si>
   <si>
     <t>БД: unreg_user, users::subscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При добавлении новой статьи, на сайте всем пользователям, подписанным на рассылку, отправляется (реальную отправку делать не нужно, текст письма пишется в лог с указанием времени отправки и адресата) email-уведомление. </t>
+  </si>
+  <si>
+    <t>Содержимое уведомления:</t>
+  </si>
+  <si>
+    <t>Лог - таблица Post в БД.</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>9.2.2</t>
+  </si>
+  <si>
+    <t>9.2.3</t>
+  </si>
+  <si>
+    <t>9.2.4</t>
+  </si>
+  <si>
+    <t>9.2.5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сделать на главной странице кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Подписаться на рассылку" .</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1958,7 +1973,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2085,6 +2100,18 @@
         <bgColor rgb="FFCCC1DA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFDBEEF4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -2178,7 +2205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2529,12 +2556,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2593,14 +2614,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3459,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AMK232"/>
+  <dimension ref="A2:AMK233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215:A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5107,10 +5137,10 @@
       <c r="C162" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="D162" s="148">
+      <c r="D162" s="147">
         <v>44666</v>
       </c>
-      <c r="E162" s="149">
+      <c r="E162" s="148">
         <v>44668</v>
       </c>
     </row>
@@ -5121,23 +5151,23 @@
       <c r="C163" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="D163" s="148"/>
-      <c r="E163" s="149"/>
+      <c r="D163" s="147"/>
+      <c r="E163" s="148"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="128" t="s">
+      <c r="A164" s="126" t="s">
         <v>279</v>
       </c>
-      <c r="B164" s="137" t="s">
+      <c r="B164" s="135" t="s">
         <v>280</v>
       </c>
-      <c r="C164" s="138" t="s">
+      <c r="C164" s="136" t="s">
         <v>281</v>
       </c>
-      <c r="D164" s="130">
+      <c r="D164" s="128">
         <v>44668</v>
       </c>
-      <c r="E164" s="130">
+      <c r="E164" s="128">
         <v>44705</v>
       </c>
     </row>
@@ -5145,19 +5175,19 @@
       <c r="B165" s="4"/>
     </row>
     <row r="166" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="128" t="s">
+      <c r="A166" s="126" t="s">
         <v>282</v>
       </c>
-      <c r="B166" s="135" t="s">
+      <c r="B166" s="133" t="s">
         <v>283</v>
       </c>
       <c r="C166" s="116" t="s">
         <v>284</v>
       </c>
-      <c r="D166" s="136">
+      <c r="D166" s="134">
         <v>44665</v>
       </c>
-      <c r="E166" s="130">
+      <c r="E166" s="128">
         <v>44705</v>
       </c>
     </row>
@@ -5219,7 +5249,7 @@
       <c r="E170" s="43"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="139" t="s">
+      <c r="A171" s="137" t="s">
         <v>294</v>
       </c>
       <c r="B171" s="90" t="s">
@@ -5228,10 +5258,10 @@
       <c r="C171" s="117" t="s">
         <v>290</v>
       </c>
-      <c r="D171" s="140">
+      <c r="D171" s="138">
         <v>44698</v>
       </c>
-      <c r="E171" s="130">
+      <c r="E171" s="128">
         <v>44705</v>
       </c>
     </row>
@@ -5281,7 +5311,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="139" t="s">
+      <c r="A175" s="137" t="s">
         <v>302</v>
       </c>
       <c r="B175" s="90" t="s">
@@ -5290,7 +5320,7 @@
       <c r="C175" s="117" t="s">
         <v>304</v>
       </c>
-      <c r="D175" s="140">
+      <c r="D175" s="138">
         <v>44699</v>
       </c>
       <c r="E175" s="47">
@@ -5304,19 +5334,19 @@
       <c r="E176" s="43"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="128" t="s">
+      <c r="A177" s="126" t="s">
         <v>305</v>
       </c>
-      <c r="B177" s="137" t="s">
+      <c r="B177" s="135" t="s">
         <v>306</v>
       </c>
-      <c r="C177" s="138" t="s">
+      <c r="C177" s="136" t="s">
         <v>281</v>
       </c>
-      <c r="D177" s="130">
+      <c r="D177" s="128">
         <v>44668</v>
       </c>
-      <c r="E177" s="130">
+      <c r="E177" s="128">
         <v>44705</v>
       </c>
     </row>
@@ -5327,7 +5357,7 @@
       <c r="E178" s="43"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="139" t="s">
+      <c r="A179" s="137" t="s">
         <v>307</v>
       </c>
       <c r="B179" s="110" t="s">
@@ -5336,27 +5366,27 @@
       <c r="C179" s="90" t="s">
         <v>309</v>
       </c>
-      <c r="D179" s="140">
+      <c r="D179" s="138">
         <v>44665</v>
       </c>
-      <c r="E179" s="140">
+      <c r="E179" s="138">
         <v>44668</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="128" t="s">
+      <c r="A180" s="126" t="s">
         <v>310</v>
       </c>
-      <c r="B180" s="137" t="s">
+      <c r="B180" s="135" t="s">
         <v>311</v>
       </c>
-      <c r="C180" s="138" t="s">
+      <c r="C180" s="136" t="s">
         <v>281</v>
       </c>
-      <c r="D180" s="130">
+      <c r="D180" s="128">
         <v>44668</v>
       </c>
-      <c r="E180" s="130">
+      <c r="E180" s="128">
         <v>44705</v>
       </c>
     </row>
@@ -5364,7 +5394,7 @@
       <c r="B181" s="4"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="141" t="s">
+      <c r="A182" s="139" t="s">
         <v>312</v>
       </c>
       <c r="B182" s="110" t="s">
@@ -5373,27 +5403,27 @@
       <c r="C182" s="119" t="s">
         <v>314</v>
       </c>
-      <c r="D182" s="142">
+      <c r="D182" s="140">
         <v>44665</v>
       </c>
-      <c r="E182" s="142">
+      <c r="E182" s="140">
         <v>44671</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="128" t="s">
+      <c r="A183" s="126" t="s">
         <v>315</v>
       </c>
-      <c r="B183" s="137" t="s">
+      <c r="B183" s="135" t="s">
         <v>316</v>
       </c>
-      <c r="C183" s="138" t="s">
+      <c r="C183" s="136" t="s">
         <v>281</v>
       </c>
-      <c r="D183" s="130">
+      <c r="D183" s="128">
         <v>44668</v>
       </c>
-      <c r="E183" s="130">
+      <c r="E183" s="128">
         <v>44705</v>
       </c>
     </row>
@@ -5499,10 +5529,10 @@
       <c r="B191" s="110" t="s">
         <v>331</v>
       </c>
-      <c r="C191" s="147" t="s">
+      <c r="C191" s="145" t="s">
         <v>332</v>
       </c>
-      <c r="D191" s="143">
+      <c r="D191" s="141">
         <v>44686</v>
       </c>
       <c r="E191" s="43"/>
@@ -5558,7 +5588,7 @@
       <c r="A195" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="B195" s="144" t="s">
+      <c r="B195" s="142" t="s">
         <v>341</v>
       </c>
       <c r="C195" s="123" t="s">
@@ -5578,7 +5608,7 @@
       <c r="B196" s="110" t="s">
         <v>344</v>
       </c>
-      <c r="C196" s="147" t="s">
+      <c r="C196" s="145" t="s">
         <v>332</v>
       </c>
       <c r="D196" s="43"/>
@@ -5591,7 +5621,7 @@
       <c r="B197" s="110" t="s">
         <v>346</v>
       </c>
-      <c r="C197" s="145" t="s">
+      <c r="C197" s="143" t="s">
         <v>347</v>
       </c>
       <c r="D197" s="43"/>
@@ -5606,7 +5636,7 @@
       <c r="B198" s="110" t="s">
         <v>349</v>
       </c>
-      <c r="C198" s="147" t="s">
+      <c r="C198" s="145" t="s">
         <v>332</v>
       </c>
       <c r="D198" s="91"/>
@@ -5656,7 +5686,7 @@
       <c r="B203" s="4"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="132" t="s">
+      <c r="A204" s="130" t="s">
         <v>356</v>
       </c>
       <c r="B204" s="110" t="s">
@@ -5665,10 +5695,10 @@
       <c r="C204" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="D204" s="133">
+      <c r="D204" s="131">
         <v>44668</v>
       </c>
-      <c r="E204" s="134">
+      <c r="E204" s="132">
         <v>44705</v>
       </c>
     </row>
@@ -5679,7 +5709,7 @@
       <c r="B205" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="C205" s="146" t="s">
+      <c r="C205" s="144" t="s">
         <v>372</v>
       </c>
       <c r="D205" s="91"/>
@@ -5689,19 +5719,19 @@
       <c r="B206" s="4"/>
     </row>
     <row r="207" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="128" t="s">
+      <c r="A207" s="126" t="s">
         <v>361</v>
       </c>
-      <c r="B207" s="135" t="s">
+      <c r="B207" s="133" t="s">
         <v>362</v>
       </c>
-      <c r="C207" s="129" t="s">
+      <c r="C207" s="127" t="s">
         <v>371</v>
       </c>
-      <c r="D207" s="130">
+      <c r="D207" s="128">
         <v>44701</v>
       </c>
-      <c r="E207" s="130">
+      <c r="E207" s="128">
         <v>44705</v>
       </c>
     </row>
@@ -5709,17 +5739,17 @@
       <c r="B208" s="4"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="131" t="s">
+      <c r="A209" s="129" t="s">
         <v>363</v>
       </c>
       <c r="B209" s="110" t="s">
         <v>364</v>
       </c>
       <c r="C209" s="41"/>
-      <c r="D209" s="130">
+      <c r="D209" s="128">
         <v>44705</v>
       </c>
-      <c r="E209" s="130">
+      <c r="E209" s="128">
         <v>44705</v>
       </c>
     </row>
@@ -5747,7 +5777,7 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A215" s="126">
+      <c r="A215" s="150">
         <v>9</v>
       </c>
       <c r="B215" s="109" t="s">
@@ -5760,7 +5790,7 @@
       <c r="E215" s="43"/>
     </row>
     <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="127" t="s">
+      <c r="A216" s="151" t="s">
         <v>369</v>
       </c>
       <c r="B216" s="57" t="s">
@@ -5772,15 +5802,15 @@
       </c>
       <c r="E216" s="43"/>
     </row>
-    <row r="217" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A217" s="127" t="s">
+    <row r="217" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="151" t="s">
         <v>377</v>
       </c>
       <c r="B217" s="110" t="s">
         <v>373</v>
       </c>
-      <c r="C217" s="150" t="s">
-        <v>383</v>
+      <c r="C217" s="146" t="s">
+        <v>395</v>
       </c>
       <c r="D217" s="42">
         <v>44706</v>
@@ -5788,66 +5818,76 @@
       <c r="E217" s="43"/>
     </row>
     <row r="218" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="127" t="s">
+      <c r="A218" s="151" t="s">
         <v>378</v>
       </c>
       <c r="B218" s="110" t="s">
         <v>374</v>
       </c>
       <c r="C218" s="105" t="s">
-        <v>384</v>
-      </c>
-      <c r="D218" s="43"/>
+        <v>383</v>
+      </c>
+      <c r="D218" s="42">
+        <v>44706</v>
+      </c>
       <c r="E218" s="43"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="127" t="s">
+      <c r="A219" s="151" t="s">
         <v>379</v>
       </c>
       <c r="B219" s="110" t="s">
         <v>375</v>
       </c>
       <c r="C219" s="105" t="s">
-        <v>387</v>
-      </c>
-      <c r="D219" s="43"/>
+        <v>386</v>
+      </c>
+      <c r="D219" s="42">
+        <v>44706</v>
+      </c>
       <c r="E219" s="43"/>
     </row>
     <row r="220" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="127" t="s">
+      <c r="A220" s="151" t="s">
         <v>380</v>
       </c>
       <c r="B220" s="110" t="s">
         <v>376</v>
       </c>
       <c r="C220" s="105" t="s">
-        <v>385</v>
-      </c>
-      <c r="D220" s="43"/>
+        <v>384</v>
+      </c>
+      <c r="D220" s="42">
+        <v>44706</v>
+      </c>
       <c r="E220" s="43"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="127" t="s">
+      <c r="A221" s="151" t="s">
         <v>381</v>
       </c>
       <c r="B221" s="110" t="s">
         <v>76</v>
       </c>
       <c r="C221" s="105"/>
-      <c r="D221" s="43"/>
+      <c r="D221" s="42">
+        <v>44706</v>
+      </c>
       <c r="E221" s="43"/>
     </row>
     <row r="222" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="127" t="s">
+      <c r="A222" s="151" t="s">
         <v>382</v>
       </c>
       <c r="B222" s="110" t="s">
         <v>77</v>
       </c>
       <c r="C222" s="105" t="s">
-        <v>386</v>
-      </c>
-      <c r="D222" s="43"/>
+        <v>385</v>
+      </c>
+      <c r="D222" s="42">
+        <v>44706</v>
+      </c>
       <c r="E222" s="43"/>
     </row>
     <row r="223" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
@@ -5858,57 +5898,105 @@
       <c r="A224" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="B224" s="23" t="s">
+      <c r="B224" s="57" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="4" t="s">
+      <c r="C224" s="41"/>
+      <c r="D224" s="43"/>
+      <c r="E224" s="43"/>
+    </row>
+    <row r="225" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A225" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="B225" s="110" t="s">
+        <v>387</v>
+      </c>
+      <c r="C225" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="D225" s="43"/>
+      <c r="E225" s="43"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="149"/>
+      <c r="B226" s="110" t="s">
+        <v>388</v>
+      </c>
+      <c r="C226" s="41"/>
+      <c r="D226" s="43"/>
+      <c r="E226" s="43"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="B227" s="110" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="4" t="s">
+      <c r="C227" s="41"/>
+      <c r="D227" s="43"/>
+      <c r="E227" s="43"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="149"/>
+      <c r="B228" s="110" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="4" t="s">
+      <c r="C228" s="41"/>
+      <c r="D228" s="43"/>
+      <c r="E228" s="43"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B229" s="110" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="4" t="s">
+      <c r="C229" s="41"/>
+      <c r="D229" s="43"/>
+      <c r="E229" s="43"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="149"/>
+      <c r="B230" s="110" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="4" t="s">
+      <c r="C230" s="41"/>
+      <c r="D230" s="43"/>
+      <c r="E230" s="43"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="B231" s="110" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="4" t="s">
+      <c r="C231" s="41"/>
+      <c r="D231" s="43"/>
+      <c r="E231" s="43"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="149"/>
+      <c r="B232" s="110" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="4" t="s">
+      <c r="C232" s="41"/>
+      <c r="D232" s="43"/>
+      <c r="E232" s="43"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="B233" s="110" t="s">
         <v>87</v>
       </c>
+      <c r="C233" s="41"/>
+      <c r="D233" s="43"/>
+      <c r="E233" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Курсовая работа.xlsx
+++ b/Курсовая работа.xlsx
@@ -1680,9 +1680,6 @@
     <t>Есть в ЛК, но сделать и с Главной.</t>
   </si>
   <si>
-    <t>В ЛК уже есть, надо сделать  ссылку в письме рассылки.</t>
-  </si>
-  <si>
     <t>БД: unreg_user, users::subscription</t>
   </si>
   <si>
@@ -1723,6 +1720,9 @@
       </rPr>
       <t>"Подписаться на рассылку" .</t>
     </r>
+  </si>
+  <si>
+    <t>Надо сделать  ссылку в письме рассылки.</t>
   </si>
 </sst>
 </file>
@@ -1973,7 +1973,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2102,14 +2102,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFDBEEF4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor rgb="FFDBEEF4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2205,7 +2217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2617,20 +2629,29 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="22" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="24" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3492,7 +3513,7 @@
   <dimension ref="A2:AMK233"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215:A222"/>
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5137,10 +5158,10 @@
       <c r="C162" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="D162" s="147">
+      <c r="D162" s="148">
         <v>44666</v>
       </c>
-      <c r="E162" s="148">
+      <c r="E162" s="149">
         <v>44668</v>
       </c>
     </row>
@@ -5151,8 +5172,8 @@
       <c r="C163" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="D163" s="147"/>
-      <c r="E163" s="148"/>
+      <c r="D163" s="148"/>
+      <c r="E163" s="149"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="126" t="s">
@@ -5777,48 +5798,54 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A215" s="150">
+      <c r="A215" s="152">
         <v>9</v>
       </c>
-      <c r="B215" s="109" t="s">
+      <c r="B215" s="153" t="s">
         <v>368</v>
       </c>
       <c r="C215" s="41"/>
-      <c r="D215" s="42">
+      <c r="D215" s="132">
         <v>44706</v>
       </c>
-      <c r="E215" s="43"/>
+      <c r="E215" s="132">
+        <v>44707</v>
+      </c>
     </row>
     <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="151" t="s">
+      <c r="A216" s="150" t="s">
         <v>369</v>
       </c>
       <c r="B216" s="57" t="s">
         <v>74</v>
       </c>
       <c r="C216" s="41"/>
-      <c r="D216" s="42">
+      <c r="D216" s="128">
         <v>44706</v>
       </c>
-      <c r="E216" s="43"/>
+      <c r="E216" s="128">
+        <v>44707</v>
+      </c>
     </row>
     <row r="217" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="151" t="s">
+      <c r="A217" s="150" t="s">
         <v>377</v>
       </c>
       <c r="B217" s="110" t="s">
         <v>373</v>
       </c>
       <c r="C217" s="146" t="s">
-        <v>395</v>
-      </c>
-      <c r="D217" s="42">
+        <v>394</v>
+      </c>
+      <c r="D217" s="128">
         <v>44706</v>
       </c>
-      <c r="E217" s="43"/>
+      <c r="E217" s="128">
+        <v>44707</v>
+      </c>
     </row>
     <row r="218" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="151" t="s">
+      <c r="A218" s="150" t="s">
         <v>378</v>
       </c>
       <c r="B218" s="110" t="s">
@@ -5827,28 +5854,32 @@
       <c r="C218" s="105" t="s">
         <v>383</v>
       </c>
-      <c r="D218" s="42">
+      <c r="D218" s="128">
         <v>44706</v>
       </c>
-      <c r="E218" s="43"/>
+      <c r="E218" s="128">
+        <v>44707</v>
+      </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="151" t="s">
+      <c r="A219" s="150" t="s">
         <v>379</v>
       </c>
       <c r="B219" s="110" t="s">
         <v>375</v>
       </c>
       <c r="C219" s="105" t="s">
-        <v>386</v>
-      </c>
-      <c r="D219" s="42">
+        <v>385</v>
+      </c>
+      <c r="D219" s="128">
         <v>44706</v>
       </c>
-      <c r="E219" s="43"/>
+      <c r="E219" s="128">
+        <v>44707</v>
+      </c>
     </row>
     <row r="220" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="151" t="s">
+      <c r="A220" s="150" t="s">
         <v>380</v>
       </c>
       <c r="B220" s="110" t="s">
@@ -5857,23 +5888,27 @@
       <c r="C220" s="105" t="s">
         <v>384</v>
       </c>
-      <c r="D220" s="42">
+      <c r="D220" s="128">
         <v>44706</v>
       </c>
-      <c r="E220" s="43"/>
+      <c r="E220" s="128">
+        <v>44707</v>
+      </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="151" t="s">
+      <c r="A221" s="150" t="s">
         <v>381</v>
       </c>
       <c r="B221" s="110" t="s">
         <v>76</v>
       </c>
       <c r="C221" s="105"/>
-      <c r="D221" s="42">
+      <c r="D221" s="128">
         <v>44706</v>
       </c>
-      <c r="E221" s="43"/>
+      <c r="E221" s="128">
+        <v>44707</v>
+      </c>
     </row>
     <row r="222" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A222" s="151" t="s">
@@ -5882,13 +5917,15 @@
       <c r="B222" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="C222" s="105" t="s">
-        <v>385</v>
-      </c>
-      <c r="D222" s="42">
+      <c r="C222" s="154" t="s">
+        <v>395</v>
+      </c>
+      <c r="D222" s="132">
         <v>44706</v>
       </c>
-      <c r="E222" s="43"/>
+      <c r="E222" s="132">
+        <v>44707</v>
+      </c>
     </row>
     <row r="223" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
@@ -5907,21 +5944,21 @@
     </row>
     <row r="225" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A225" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B225" s="110" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C225" s="94" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D225" s="43"/>
       <c r="E225" s="43"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="149"/>
+      <c r="A226" s="147"/>
       <c r="B226" s="110" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C226" s="41"/>
       <c r="D226" s="43"/>
@@ -5929,7 +5966,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B227" s="110" t="s">
         <v>81</v>
@@ -5939,7 +5976,7 @@
       <c r="E227" s="43"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="149"/>
+      <c r="A228" s="147"/>
       <c r="B228" s="110" t="s">
         <v>82</v>
       </c>
@@ -5949,7 +5986,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B229" s="110" t="s">
         <v>83</v>
@@ -5959,7 +5996,7 @@
       <c r="E229" s="43"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="149"/>
+      <c r="A230" s="147"/>
       <c r="B230" s="110" t="s">
         <v>84</v>
       </c>
@@ -5969,7 +6006,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B231" s="110" t="s">
         <v>85</v>
@@ -5979,7 +6016,7 @@
       <c r="E231" s="43"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="149"/>
+      <c r="A232" s="147"/>
       <c r="B232" s="110" t="s">
         <v>86</v>
       </c>
@@ -5989,7 +6026,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B233" s="110" t="s">
         <v>87</v>

--- a/Курсовая работа.xlsx
+++ b/Курсовая работа.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="399">
   <si>
     <t>1.1 Курсовая работа</t>
   </si>
@@ -1683,13 +1683,7 @@
     <t>БД: unreg_user, users::subscription</t>
   </si>
   <si>
-    <t xml:space="preserve">При добавлении новой статьи, на сайте всем пользователям, подписанным на рассылку, отправляется (реальную отправку делать не нужно, текст письма пишется в лог с указанием времени отправки и адресата) email-уведомление. </t>
-  </si>
-  <si>
     <t>Содержимое уведомления:</t>
-  </si>
-  <si>
-    <t>Лог - таблица Post в БД.</t>
   </si>
   <si>
     <t>9.2.1</t>
@@ -1723,6 +1717,45 @@
   </si>
   <si>
     <t>Надо сделать  ссылку в письме рассылки.</t>
+  </si>
+  <si>
+    <t>Лог - таблица Post в БД. 
+Вывод - на страницу Почта последней рассылки.</t>
+  </si>
+  <si>
+    <t>Ссылка на страницу сайта с отпиской от рассылки.</t>
+  </si>
+  <si>
+    <t>Страница с отпиской от рассылки.</t>
+  </si>
+  <si>
+    <t>9.2.5.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">При </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>добавлении новой статьи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, на сайте всем пользователям, подписанным на рассылку, отправляется (реальную отправку делать не нужно, текст письма пишется в лог с указанием времени отправки и адресата) email-уведомление. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1973,7 +2006,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2124,6 +2157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFDBEEF4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -2217,7 +2256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2632,26 +2671,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="22" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="24" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="22" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="24" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3510,10 +3552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AMK233"/>
+  <dimension ref="A2:AMK234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5158,10 +5200,10 @@
       <c r="C162" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="D162" s="148">
+      <c r="D162" s="153">
         <v>44666</v>
       </c>
-      <c r="E162" s="149">
+      <c r="E162" s="154">
         <v>44668</v>
       </c>
     </row>
@@ -5172,8 +5214,8 @@
       <c r="C163" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="D163" s="148"/>
-      <c r="E163" s="149"/>
+      <c r="D163" s="153"/>
+      <c r="E163" s="154"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="126" t="s">
@@ -5798,10 +5840,10 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A215" s="152">
+      <c r="A215" s="150">
         <v>9</v>
       </c>
-      <c r="B215" s="153" t="s">
+      <c r="B215" s="151" t="s">
         <v>368</v>
       </c>
       <c r="C215" s="41"/>
@@ -5813,7 +5855,7 @@
       </c>
     </row>
     <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="150" t="s">
+      <c r="A216" s="148" t="s">
         <v>369</v>
       </c>
       <c r="B216" s="57" t="s">
@@ -5828,14 +5870,14 @@
       </c>
     </row>
     <row r="217" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="150" t="s">
+      <c r="A217" s="148" t="s">
         <v>377</v>
       </c>
       <c r="B217" s="110" t="s">
         <v>373</v>
       </c>
       <c r="C217" s="146" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D217" s="128">
         <v>44706</v>
@@ -5845,7 +5887,7 @@
       </c>
     </row>
     <row r="218" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="150" t="s">
+      <c r="A218" s="148" t="s">
         <v>378</v>
       </c>
       <c r="B218" s="110" t="s">
@@ -5862,7 +5904,7 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="150" t="s">
+      <c r="A219" s="148" t="s">
         <v>379</v>
       </c>
       <c r="B219" s="110" t="s">
@@ -5879,7 +5921,7 @@
       </c>
     </row>
     <row r="220" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="150" t="s">
+      <c r="A220" s="148" t="s">
         <v>380</v>
       </c>
       <c r="B220" s="110" t="s">
@@ -5896,7 +5938,7 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="150" t="s">
+      <c r="A221" s="148" t="s">
         <v>381</v>
       </c>
       <c r="B221" s="110" t="s">
@@ -5911,14 +5953,14 @@
       </c>
     </row>
     <row r="222" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="151" t="s">
+      <c r="A222" s="149" t="s">
         <v>382</v>
       </c>
       <c r="B222" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="C222" s="154" t="s">
-        <v>395</v>
+      <c r="C222" s="152" t="s">
+        <v>393</v>
       </c>
       <c r="D222" s="132">
         <v>44706</v>
@@ -5932,33 +5974,37 @@
       <c r="B223" s="5"/>
     </row>
     <row r="224" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A224" s="27" t="s">
+      <c r="A224" s="155" t="s">
         <v>370</v>
       </c>
       <c r="B224" s="57" t="s">
         <v>79</v>
       </c>
       <c r="C224" s="41"/>
-      <c r="D224" s="43"/>
+      <c r="D224" s="42">
+        <v>44707</v>
+      </c>
       <c r="E224" s="43"/>
     </row>
     <row r="225" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A225" s="27" t="s">
-        <v>389</v>
+      <c r="A225" s="155" t="s">
+        <v>387</v>
       </c>
       <c r="B225" s="110" t="s">
-        <v>386</v>
-      </c>
-      <c r="C225" s="94" t="s">
-        <v>388</v>
-      </c>
-      <c r="D225" s="43"/>
+        <v>398</v>
+      </c>
+      <c r="C225" s="105" t="s">
+        <v>394</v>
+      </c>
+      <c r="D225" s="42">
+        <v>44707</v>
+      </c>
       <c r="E225" s="43"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="147"/>
       <c r="B226" s="110" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C226" s="41"/>
       <c r="D226" s="43"/>
@@ -5966,7 +6012,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B227" s="110" t="s">
         <v>81</v>
@@ -5986,7 +6032,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B229" s="110" t="s">
         <v>83</v>
@@ -6006,7 +6052,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B231" s="110" t="s">
         <v>85</v>
@@ -6024,16 +6070,29 @@
       <c r="D232" s="43"/>
       <c r="E232" s="43"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A233" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B233" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="C233" s="41"/>
+      <c r="C233" s="90" t="s">
+        <v>395</v>
+      </c>
       <c r="D233" s="43"/>
       <c r="E233" s="43"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="B234" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="C234" s="41"/>
+      <c r="D234" s="43"/>
+      <c r="E234" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Курсовая работа.xlsx
+++ b/Курсовая работа.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="402">
   <si>
     <t>1.1 Курсовая работа</t>
   </si>
@@ -1719,10 +1719,6 @@
     <t>Надо сделать  ссылку в письме рассылки.</t>
   </si>
   <si>
-    <t>Лог - таблица Post в БД. 
-Вывод - на страницу Почта последней рассылки.</t>
-  </si>
-  <si>
     <t>Ссылка на страницу сайта с отпиской от рассылки.</t>
   </si>
   <si>
@@ -1756,6 +1752,19 @@
       </rPr>
       <t xml:space="preserve">, на сайте всем пользователям, подписанным на рассылку, отправляется (реальную отправку делать не нужно, текст письма пишется в лог с указанием времени отправки и адресата) email-уведомление. </t>
     </r>
+  </si>
+  <si>
+    <t>9.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лог - таблица Post в БД. 
+</t>
+  </si>
+  <si>
+    <t>Вывод лога на страницу Рассылка в порядке убывания даты с пагинацией.</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2169,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFDBEEF4"/>
+        <bgColor rgb="FFCCC1DA"/>
       </patternFill>
     </fill>
   </fills>
@@ -2256,7 +2265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2476,20 +2485,11 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2557,12 +2557,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2692,7 +2686,28 @@
     <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="26" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3552,10 +3567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AMK234"/>
+  <dimension ref="A2:AMK236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A82" activeCellId="1" sqref="A79 A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4315,7 +4330,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="79" t="s">
+      <c r="A79" s="156" t="s">
         <v>167</v>
       </c>
       <c r="B79" s="69" t="s">
@@ -4324,186 +4339,183 @@
       <c r="C79" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="80"/>
-      <c r="E79" s="81"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="80"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="82" t="s">
+      <c r="A81" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="B81" s="69" t="s">
+      <c r="B81" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="C81" s="83" t="s">
+      <c r="C81" s="153"/>
+      <c r="D81" s="81">
+        <v>44646</v>
+      </c>
+      <c r="E81" s="81">
+        <v>44647</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="157" t="s">
+        <v>401</v>
+      </c>
+      <c r="B82" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="D81" s="84">
-        <v>44646</v>
-      </c>
-      <c r="E81" s="84">
-        <v>44647</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-    </row>
-    <row r="83" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="37" t="s">
+      <c r="C82" s="153"/>
+      <c r="D82" s="152">
+        <v>44708</v>
+      </c>
+      <c r="E82" s="155"/>
+    </row>
+    <row r="83" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+    </row>
+    <row r="84" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="37" t="s">
+      <c r="B84" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="37" t="s">
+      <c r="C84" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="38" t="s">
+      <c r="D84" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="37" t="s">
+      <c r="E84" s="37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="82">
         <v>3</v>
       </c>
-      <c r="B84" s="86" t="s">
+      <c r="B85" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="87"/>
-      <c r="D84" s="88">
+      <c r="C85" s="84"/>
+      <c r="D85" s="85">
         <v>44608</v>
       </c>
-      <c r="E84" s="89"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="45" t="s">
+      <c r="E85" s="86"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="90" t="s">
+      <c r="B86" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="41" t="s">
+      <c r="C86" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="D85" s="47">
+      <c r="D86" s="47">
         <v>44608</v>
       </c>
-      <c r="E85" s="47">
+      <c r="E86" s="47">
         <v>44608</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="34"/>
-    </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="60" t="s">
+      <c r="B87" s="34"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="B87" s="90" t="s">
+      <c r="B88" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="C87" s="41"/>
-      <c r="D87" s="84">
+      <c r="C88" s="41"/>
+      <c r="D88" s="81">
         <v>44649</v>
       </c>
-      <c r="E87" s="91"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="C88" s="41"/>
-      <c r="D88" s="47">
-        <v>44649</v>
-      </c>
-      <c r="E88" s="47">
-        <v>44649</v>
-      </c>
+      <c r="E88" s="88"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="B89" s="90" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="B89" s="87" t="s">
+        <v>179</v>
       </c>
       <c r="C89" s="41"/>
       <c r="D89" s="47">
         <v>44649</v>
       </c>
       <c r="E89" s="47">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="41"/>
+      <c r="D90" s="47">
+        <v>44649</v>
+      </c>
+      <c r="E90" s="47">
         <v>44651</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="60" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="90" t="s">
+      <c r="B91" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="C90" s="41"/>
-      <c r="D90" s="84">
+      <c r="C91" s="41"/>
+      <c r="D91" s="81">
         <v>44651</v>
       </c>
-      <c r="E90" s="84">
+      <c r="E91" s="81">
         <v>44652</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="45" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="92" t="s">
+      <c r="B92" s="89" t="s">
         <v>185</v>
       </c>
-      <c r="C91" s="93" t="s">
+      <c r="C92" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="D91" s="47">
+      <c r="D92" s="47">
         <v>44652</v>
       </c>
-      <c r="E91" s="47">
+      <c r="E92" s="47">
         <v>44700</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="34"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" s="34"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="45" t="s">
+      <c r="B94" s="34"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="90" t="s">
+      <c r="B95" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="41"/>
-      <c r="D94" s="47">
-        <v>44652</v>
-      </c>
-      <c r="E94" s="47">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>190</v>
-      </c>
+      <c r="C95" s="41"/>
       <c r="D95" s="47">
         <v>44652</v>
       </c>
@@ -4511,95 +4523,94 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="45" t="s">
+    <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" s="47">
+        <v>44652</v>
+      </c>
+      <c r="E96" s="47">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="90" t="s">
+      <c r="B98" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="41"/>
-      <c r="D97" s="47">
+      <c r="C98" s="41"/>
+      <c r="D98" s="47">
         <v>44654</v>
       </c>
-      <c r="E97" s="47">
+      <c r="E98" s="47">
         <v>44658</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="45" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="B99" s="90" t="s">
+      <c r="B100" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C100" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="D99" s="47">
+      <c r="D100" s="47">
         <v>44654</v>
-      </c>
-      <c r="E99" s="47">
-        <v>44658</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="B100" s="94" t="s">
-        <v>197</v>
-      </c>
-      <c r="C100" s="90" t="s">
-        <v>198</v>
-      </c>
-      <c r="D100" s="47">
-        <v>44658</v>
       </c>
       <c r="E100" s="47">
         <v>44658</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="45" t="s">
+    <row r="101" spans="1:5" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" s="91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101" s="47">
+        <v>44658</v>
+      </c>
+      <c r="E101" s="47">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="B102" s="90" t="s">
+      <c r="B103" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="47">
+      <c r="C103" s="41"/>
+      <c r="D103" s="47">
         <v>44652</v>
       </c>
-      <c r="E102" s="47">
+      <c r="E103" s="47">
         <v>44652</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="B104" s="95" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="41"/>
-      <c r="D104" s="47">
-        <v>44649</v>
-      </c>
-      <c r="E104" s="47">
-        <v>44651</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="B105" s="41" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="B105" s="92" t="s">
+        <v>202</v>
       </c>
       <c r="C105" s="41"/>
       <c r="D105" s="47">
-        <v>44651</v>
+        <v>44649</v>
       </c>
       <c r="E105" s="47">
         <v>44651</v>
@@ -4607,10 +4618,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B106" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C106" s="41"/>
       <c r="D106" s="47">
@@ -4622,14 +4633,14 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B107" s="41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C107" s="41"/>
       <c r="D107" s="47">
-        <v>44649</v>
+        <v>44651</v>
       </c>
       <c r="E107" s="47">
         <v>44651</v>
@@ -4637,10 +4648,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B108" s="41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C108" s="41"/>
       <c r="D108" s="47">
@@ -4650,175 +4661,176 @@
         <v>44651</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="29"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="96">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="41"/>
+      <c r="D109" s="47">
+        <v>44649</v>
+      </c>
+      <c r="E109" s="47">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="93">
         <v>4</v>
       </c>
-      <c r="B111" s="86" t="s">
+      <c r="B112" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C111" s="87"/>
-      <c r="D111" s="47">
+      <c r="C112" s="84"/>
+      <c r="D112" s="47">
         <v>44610</v>
       </c>
-      <c r="E111" s="47">
+      <c r="E112" s="47">
         <v>44625</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="B113" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="C113" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D113" s="47">
-        <v>44610</v>
-      </c>
-      <c r="E113" s="47">
-        <v>44610</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="B114" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="D114" s="47">
         <v>44610</v>
       </c>
       <c r="E114" s="47">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D115" s="47">
+        <v>44610</v>
+      </c>
+      <c r="E115" s="47">
         <v>44625</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="97" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="B116" s="98" t="s">
+      <c r="B117" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="C116" s="41"/>
-      <c r="D116" s="47">
+      <c r="C117" s="41"/>
+      <c r="D117" s="47">
         <v>44612</v>
       </c>
-      <c r="E116" s="47">
+      <c r="E117" s="47">
         <v>44621</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="B118" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C118" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D118" s="47">
-        <v>44623</v>
-      </c>
-      <c r="E118" s="47">
-        <v>44623</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="D119" s="47">
         <v>44623</v>
       </c>
       <c r="E119" s="47">
-        <v>44625</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D120" s="47">
+        <v>44623</v>
+      </c>
+      <c r="E120" s="47">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="B120" s="29" t="s">
+      <c r="B121" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="D120" s="47">
+      <c r="D121" s="47">
         <v>44631</v>
       </c>
-      <c r="E120" s="47">
+      <c r="E121" s="47">
         <v>44631</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="96">
+    <row r="123" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="29"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="93">
         <v>5</v>
       </c>
-      <c r="B123" s="86" t="s">
+      <c r="B124" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C123" s="87"/>
-      <c r="D123" s="47">
+      <c r="C124" s="84"/>
+      <c r="D124" s="47">
         <v>44623</v>
       </c>
-      <c r="E123" s="47">
+      <c r="E124" s="47">
         <v>44631</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="45" t="s">
+    <row r="126" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="B125" s="34" t="s">
+      <c r="B126" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="D125" s="47">
+      <c r="D126" s="47">
         <v>44623</v>
       </c>
-      <c r="E125" s="47">
+      <c r="E126" s="47">
         <v>44623</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="B126" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D126" s="47">
-        <v>44630</v>
-      </c>
-      <c r="E126" s="47">
-        <v>44630</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D127" s="47">
         <v>44630</v>
@@ -4829,10 +4841,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D128" s="47">
         <v>44630</v>
@@ -4843,10 +4855,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D129" s="47">
         <v>44630</v>
@@ -4855,504 +4867,507 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="45" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D130" s="47">
+        <v>44630</v>
+      </c>
+      <c r="E130" s="47">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="B131" s="29" t="s">
+      <c r="B132" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C131" s="29" t="s">
+      <c r="C132" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="D131" s="47">
+      <c r="D132" s="47">
         <v>44623</v>
       </c>
-      <c r="E131" s="47">
+      <c r="E132" s="47">
         <v>44624</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="45" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="B133" s="29" t="s">
+      <c r="B134" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="C133" s="29" t="s">
+      <c r="C134" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="D133" s="47">
+      <c r="D134" s="47">
         <v>44630</v>
       </c>
-      <c r="E133" s="47">
+      <c r="E134" s="47">
         <v>44630</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="45" t="s">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="B134" s="29" t="s">
+      <c r="B135" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="C134" s="41" t="s">
+      <c r="C135" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="D134" s="47">
+      <c r="D135" s="47">
         <v>44623</v>
       </c>
-      <c r="E134" s="47">
+      <c r="E135" s="47">
         <v>44623</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="45" t="s">
+    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="B135" s="99" t="s">
+      <c r="B136" s="96" t="s">
         <v>241</v>
-      </c>
-      <c r="D135" s="47">
-        <v>44630</v>
-      </c>
-      <c r="E135" s="47">
-        <v>44640</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="B136" s="29" t="s">
-        <v>243</v>
       </c>
       <c r="D136" s="47">
         <v>44630</v>
       </c>
       <c r="E136" s="47">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B137" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D137" s="47">
         <v>44630</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="96">
+      <c r="E137" s="47">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="93">
         <v>6</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="B140" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="C139" s="87"/>
-      <c r="D139" s="47">
+      <c r="C140" s="84"/>
+      <c r="D140" s="47">
         <v>44625</v>
       </c>
-      <c r="E139" s="47">
+      <c r="E140" s="47">
         <v>44625</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="85">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="82">
         <v>7</v>
       </c>
-      <c r="B142" s="100" t="s">
+      <c r="B143" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="41"/>
-      <c r="D142" s="68">
+      <c r="C143" s="41"/>
+      <c r="D143" s="68">
         <v>44631</v>
       </c>
-      <c r="E142" s="43"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="101" t="s">
+      <c r="E143" s="43"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B144" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D143" s="102">
+      <c r="D144" s="99">
         <v>44631</v>
       </c>
-      <c r="E143" s="102">
+      <c r="E144" s="99">
         <v>44631</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="B144" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="D144" s="47">
-        <v>44631</v>
-      </c>
-      <c r="E144" s="47">
-        <v>44639</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D145" s="47">
-        <v>44641</v>
+        <v>44631</v>
       </c>
       <c r="E145" s="47">
-        <v>44645</v>
+        <v>44639</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="D146" s="47">
+        <v>44641</v>
+      </c>
+      <c r="E146" s="47">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B147" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="D146" s="47">
+      <c r="D147" s="47">
         <v>44635</v>
       </c>
-      <c r="E146" s="47">
+      <c r="E147" s="47">
         <v>44639</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="45" t="s">
+    <row r="148" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="B147" s="33" t="s">
+      <c r="B148" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="C147" s="103" t="s">
+      <c r="C148" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="D147" s="104">
+      <c r="D148" s="101">
         <v>44639</v>
       </c>
-      <c r="E147" s="104">
+      <c r="E148" s="101">
         <v>44639</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="45" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="B148" s="105" t="s">
+      <c r="B149" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="C148" s="106"/>
-      <c r="D148" s="47">
+      <c r="C149" s="103"/>
+      <c r="D149" s="47">
         <v>44670</v>
       </c>
-      <c r="E148" s="47">
+      <c r="E149" s="47">
         <v>44670</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="31"/>
-      <c r="B149" s="33"/>
-    </row>
-    <row r="150" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="45" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="31"/>
+      <c r="B150" s="33"/>
+    </row>
+    <row r="151" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B151" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D150" s="47">
+      <c r="D151" s="47">
         <v>44640</v>
       </c>
-      <c r="E150" s="47">
+      <c r="E151" s="47">
         <v>44640</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="31"/>
-      <c r="B151" s="33"/>
-    </row>
-    <row r="152" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="45" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="31"/>
+      <c r="B152" s="33"/>
+    </row>
+    <row r="153" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="B152" s="33" t="s">
+      <c r="B153" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C152" s="29" t="s">
+      <c r="C153" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="D152" s="47">
+      <c r="D153" s="47">
         <v>44640</v>
       </c>
-      <c r="E152" s="47">
+      <c r="E153" s="47">
         <v>44640</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="60" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="B153" s="41" t="s">
+      <c r="B154" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="C153" s="107" t="s">
+      <c r="C154" s="104" t="s">
         <v>264</v>
       </c>
-      <c r="D153" s="84">
+      <c r="D154" s="81">
         <v>44668</v>
       </c>
-      <c r="E153" s="84">
+      <c r="E154" s="81">
         <v>44669</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="108">
+    <row r="157" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A157" s="151">
         <v>8</v>
       </c>
-      <c r="B156" s="109" t="s">
+      <c r="B157" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="C156" s="41"/>
-      <c r="D156" s="42">
+      <c r="C157" s="41"/>
+      <c r="D157" s="127">
         <v>44645</v>
       </c>
-      <c r="E156" s="43"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="101" t="s">
+      <c r="E157" s="127">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="B157" s="110" t="s">
+      <c r="B158" s="105" t="s">
         <v>266</v>
       </c>
-      <c r="C157" s="41" t="s">
+      <c r="C158" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="D157" s="47">
+      <c r="D158" s="47">
         <v>44646</v>
       </c>
-      <c r="E157" s="47">
+      <c r="E158" s="47">
         <v>44668</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="111" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="106" t="s">
         <v>268</v>
       </c>
-      <c r="B158" s="112" t="s">
+      <c r="B159" s="107" t="s">
         <v>269</v>
       </c>
-      <c r="C158" s="70"/>
-      <c r="D158" s="113">
+      <c r="C159" s="70"/>
+      <c r="D159" s="108">
         <v>44646</v>
       </c>
-      <c r="E158" s="84">
+      <c r="E159" s="81">
         <v>44659</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="4"/>
-    </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="45" t="s">
+      <c r="B160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="B160" s="110" t="s">
+      <c r="B161" s="105" t="s">
         <v>271</v>
       </c>
-      <c r="C160" s="90" t="s">
+      <c r="C161" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="D160" s="47">
+      <c r="D161" s="47">
         <v>44659</v>
       </c>
-      <c r="E160" s="47">
+      <c r="E161" s="47">
         <v>44665</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="60" t="s">
+    <row r="162" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="B161" s="110" t="s">
+      <c r="B162" s="105" t="s">
         <v>274</v>
       </c>
-      <c r="C161" s="114" t="s">
+      <c r="C162" s="109" t="s">
         <v>275</v>
       </c>
-      <c r="D161" s="42">
+      <c r="D162" s="127">
         <v>44659</v>
       </c>
-      <c r="E161" s="43"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="4" t="s">
+      <c r="E162" s="127">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C162" s="90" t="s">
+      <c r="C163" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="D162" s="153">
+      <c r="D163" s="148">
         <v>44666</v>
       </c>
-      <c r="E162" s="154">
+      <c r="E163" s="149">
         <v>44668</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B163" s="115" t="s">
+    <row r="164" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B164" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="C163" s="105" t="s">
+      <c r="C164" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="D163" s="153"/>
-      <c r="E163" s="154"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="126" t="s">
+      <c r="D164" s="148"/>
+      <c r="E164" s="149"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="121" t="s">
         <v>279</v>
       </c>
-      <c r="B164" s="135" t="s">
+      <c r="B165" s="130" t="s">
         <v>280</v>
       </c>
-      <c r="C164" s="136" t="s">
+      <c r="C165" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="D164" s="128">
+      <c r="D165" s="123">
         <v>44668</v>
       </c>
-      <c r="E164" s="128">
+      <c r="E165" s="123">
         <v>44705</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="4"/>
-    </row>
-    <row r="166" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="126" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="B166" s="133" t="s">
+      <c r="B167" s="128" t="s">
         <v>283</v>
       </c>
-      <c r="C166" s="116" t="s">
+      <c r="C167" s="111" t="s">
         <v>284</v>
       </c>
-      <c r="D166" s="134">
+      <c r="D167" s="129">
         <v>44665</v>
       </c>
-      <c r="E166" s="128">
+      <c r="E167" s="123">
         <v>44705</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="B167" s="90" t="s">
-        <v>286</v>
-      </c>
-      <c r="C167" s="117" t="s">
-        <v>287</v>
-      </c>
-      <c r="D167" s="47">
-        <v>44697</v>
-      </c>
-      <c r="E167" s="47">
-        <v>44698</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="B168" s="90" t="s">
-        <v>289</v>
-      </c>
-      <c r="C168" s="117" t="s">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="B168" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="C168" s="112" t="s">
+        <v>287</v>
       </c>
       <c r="D168" s="47">
+        <v>44697</v>
+      </c>
+      <c r="E168" s="47">
         <v>44698</v>
-      </c>
-      <c r="E168" s="47">
-        <v>44699</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="B169" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="C169" s="117" t="s">
-        <v>293</v>
+        <v>288</v>
+      </c>
+      <c r="B169" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="C169" s="112" t="s">
+        <v>290</v>
       </c>
       <c r="D169" s="47">
-        <v>44699</v>
+        <v>44698</v>
       </c>
       <c r="E169" s="47">
         <v>44699</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="90"/>
-      <c r="C170" s="117"/>
-      <c r="D170" s="91"/>
-      <c r="E170" s="43"/>
+      <c r="A170" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="B170" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="C170" s="112" t="s">
+        <v>293</v>
+      </c>
+      <c r="D170" s="47">
+        <v>44699</v>
+      </c>
+      <c r="E170" s="47">
+        <v>44699</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="137" t="s">
+      <c r="B171" s="87"/>
+      <c r="C171" s="112"/>
+      <c r="D171" s="88"/>
+      <c r="E171" s="43"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="132" t="s">
         <v>294</v>
       </c>
-      <c r="B171" s="90" t="s">
+      <c r="B172" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="C171" s="117" t="s">
+      <c r="C172" s="112" t="s">
         <v>290</v>
       </c>
-      <c r="D171" s="138">
+      <c r="D172" s="133">
         <v>44698</v>
       </c>
-      <c r="E171" s="128">
+      <c r="E172" s="123">
         <v>44705</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="B172" s="90" t="s">
-        <v>297</v>
-      </c>
-      <c r="C172" s="117"/>
-      <c r="D172" s="47">
-        <v>44698</v>
-      </c>
-      <c r="E172" s="47">
-        <v>44699</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="B173" s="90" t="s">
-        <v>299</v>
-      </c>
-      <c r="C173" s="117"/>
+        <v>296</v>
+      </c>
+      <c r="B173" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="C173" s="112"/>
       <c r="D173" s="47">
-        <v>44699</v>
+        <v>44698</v>
       </c>
       <c r="E173" s="47">
         <v>44699</v>
@@ -5360,12 +5375,12 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="B174" s="90" t="s">
-        <v>301</v>
-      </c>
-      <c r="C174" s="118"/>
+        <v>298</v>
+      </c>
+      <c r="B174" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="C174" s="112"/>
       <c r="D174" s="47">
         <v>44699</v>
       </c>
@@ -5374,16 +5389,14 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="137" t="s">
-        <v>302</v>
-      </c>
-      <c r="B175" s="90" t="s">
-        <v>303</v>
-      </c>
-      <c r="C175" s="117" t="s">
-        <v>304</v>
-      </c>
-      <c r="D175" s="138">
+      <c r="A175" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="B175" s="87" t="s">
+        <v>301</v>
+      </c>
+      <c r="C175" s="113"/>
+      <c r="D175" s="47">
         <v>44699</v>
       </c>
       <c r="E175" s="47">
@@ -5391,146 +5404,148 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="90"/>
-      <c r="C176" s="117"/>
-      <c r="D176" s="91"/>
-      <c r="E176" s="43"/>
+      <c r="A176" s="132" t="s">
+        <v>302</v>
+      </c>
+      <c r="B176" s="87" t="s">
+        <v>303</v>
+      </c>
+      <c r="C176" s="112" t="s">
+        <v>304</v>
+      </c>
+      <c r="D176" s="133">
+        <v>44699</v>
+      </c>
+      <c r="E176" s="47">
+        <v>44699</v>
+      </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="126" t="s">
+      <c r="B177" s="87"/>
+      <c r="C177" s="112"/>
+      <c r="D177" s="88"/>
+      <c r="E177" s="43"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="121" t="s">
         <v>305</v>
       </c>
-      <c r="B177" s="135" t="s">
+      <c r="B178" s="130" t="s">
         <v>306</v>
       </c>
-      <c r="C177" s="136" t="s">
+      <c r="C178" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="D177" s="128">
+      <c r="D178" s="123">
         <v>44668</v>
       </c>
-      <c r="E177" s="128">
+      <c r="E178" s="123">
         <v>44705</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="90"/>
-      <c r="C178" s="106"/>
-      <c r="D178" s="91"/>
-      <c r="E178" s="43"/>
-    </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="137" t="s">
+      <c r="B179" s="87"/>
+      <c r="C179" s="103"/>
+      <c r="D179" s="88"/>
+      <c r="E179" s="43"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="132" t="s">
         <v>307</v>
       </c>
-      <c r="B179" s="110" t="s">
+      <c r="B180" s="105" t="s">
         <v>308</v>
       </c>
-      <c r="C179" s="90" t="s">
+      <c r="C180" s="87" t="s">
         <v>309</v>
       </c>
-      <c r="D179" s="138">
+      <c r="D180" s="133">
         <v>44665</v>
       </c>
-      <c r="E179" s="138">
+      <c r="E180" s="133">
         <v>44668</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="126" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="121" t="s">
         <v>310</v>
       </c>
-      <c r="B180" s="135" t="s">
+      <c r="B181" s="130" t="s">
         <v>311</v>
       </c>
-      <c r="C180" s="136" t="s">
+      <c r="C181" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="D180" s="128">
+      <c r="D181" s="123">
         <v>44668</v>
       </c>
-      <c r="E180" s="128">
+      <c r="E181" s="123">
         <v>44705</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="4"/>
-    </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="139" t="s">
+      <c r="B182" s="4"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="134" t="s">
         <v>312</v>
       </c>
-      <c r="B182" s="110" t="s">
+      <c r="B183" s="105" t="s">
         <v>313</v>
       </c>
-      <c r="C182" s="119" t="s">
+      <c r="C183" s="114" t="s">
         <v>314</v>
       </c>
-      <c r="D182" s="140">
+      <c r="D183" s="135">
         <v>44665</v>
       </c>
-      <c r="E182" s="140">
+      <c r="E183" s="135">
         <v>44671</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="126" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="121" t="s">
         <v>315</v>
       </c>
-      <c r="B183" s="135" t="s">
+      <c r="B184" s="130" t="s">
         <v>316</v>
       </c>
-      <c r="C183" s="136" t="s">
+      <c r="C184" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="D183" s="128">
+      <c r="D184" s="123">
         <v>44668</v>
       </c>
-      <c r="E183" s="128">
+      <c r="E184" s="123">
         <v>44705</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B184" s="4"/>
-    </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="60" t="s">
+      <c r="B185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="B185" s="120" t="s">
+      <c r="B186" s="115" t="s">
         <v>318</v>
       </c>
-      <c r="C185" s="121" t="s">
+      <c r="C186" s="116" t="s">
         <v>319</v>
       </c>
-      <c r="D185" s="84">
+      <c r="D186" s="81">
         <v>44665</v>
       </c>
-      <c r="E185" s="84">
+      <c r="E186" s="81">
         <v>44693</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="B186" s="110" t="s">
-        <v>321</v>
-      </c>
-      <c r="C186" s="41"/>
-      <c r="D186" s="47">
-        <v>44665</v>
-      </c>
-      <c r="E186" s="47">
-        <v>44685</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="B187" s="110" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+      <c r="B187" s="105" t="s">
+        <v>321</v>
       </c>
       <c r="C187" s="41"/>
       <c r="D187" s="47">
@@ -5542,10 +5557,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="B188" s="110" t="s">
-        <v>325</v>
+        <v>322</v>
+      </c>
+      <c r="B188" s="105" t="s">
+        <v>323</v>
       </c>
       <c r="C188" s="41"/>
       <c r="D188" s="47">
@@ -5557,10 +5572,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="45" t="s">
-        <v>326</v>
-      </c>
-      <c r="B189" s="110" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="B189" s="105" t="s">
+        <v>325</v>
       </c>
       <c r="C189" s="41"/>
       <c r="D189" s="47">
@@ -5572,61 +5587,61 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="B190" s="110" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="B190" s="105" t="s">
+        <v>327</v>
       </c>
       <c r="C190" s="41"/>
       <c r="D190" s="47">
+        <v>44665</v>
+      </c>
+      <c r="E190" s="47">
         <v>44685</v>
       </c>
-      <c r="E190" s="47">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="B191" s="105" t="s">
+        <v>329</v>
+      </c>
+      <c r="C191" s="41"/>
+      <c r="D191" s="47">
+        <v>44685</v>
+      </c>
+      <c r="E191" s="47">
         <v>44686</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="122" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="117" t="s">
         <v>330</v>
       </c>
-      <c r="B191" s="110" t="s">
+      <c r="B192" s="105" t="s">
         <v>331</v>
       </c>
-      <c r="C191" s="145" t="s">
+      <c r="C192" s="140" t="s">
         <v>332</v>
       </c>
-      <c r="D191" s="141">
+      <c r="D192" s="136">
         <v>44686</v>
       </c>
-      <c r="E191" s="43"/>
-    </row>
-    <row r="192" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="45" t="s">
+      <c r="E192" s="43"/>
+    </row>
+    <row r="193" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="B192" s="110" t="s">
+      <c r="B193" s="105" t="s">
         <v>334</v>
       </c>
-      <c r="C192" s="90" t="s">
+      <c r="C193" s="87" t="s">
         <v>335</v>
       </c>
-      <c r="D192" s="47">
+      <c r="D193" s="47">
         <v>44686</v>
-      </c>
-      <c r="E192" s="47">
-        <v>44693</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="B193" s="110" t="s">
-        <v>337</v>
-      </c>
-      <c r="C193" s="90"/>
-      <c r="D193" s="47">
-        <v>44693</v>
       </c>
       <c r="E193" s="47">
         <v>44693</v>
@@ -5634,470 +5649,524 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="B194" s="105" t="s">
+        <v>337</v>
+      </c>
+      <c r="C194" s="87"/>
+      <c r="D194" s="47">
+        <v>44693</v>
+      </c>
+      <c r="E194" s="47">
+        <v>44693</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="B194" s="112" t="s">
+      <c r="B195" s="107" t="s">
         <v>339</v>
       </c>
-      <c r="C194" s="70"/>
-      <c r="D194" s="73">
+      <c r="C195" s="70"/>
+      <c r="D195" s="73">
         <v>44686</v>
       </c>
-      <c r="E194" s="73">
+      <c r="E195" s="73">
         <v>44687</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="45" t="s">
+    <row r="196" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="B195" s="142" t="s">
+      <c r="B196" s="137" t="s">
         <v>341</v>
       </c>
-      <c r="C195" s="123" t="s">
+      <c r="C196" s="118" t="s">
         <v>342</v>
       </c>
-      <c r="D195" s="104">
+      <c r="D196" s="101">
         <v>44700</v>
       </c>
-      <c r="E195" s="104">
+      <c r="E196" s="101">
         <v>44700</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="122" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="117" t="s">
         <v>343</v>
       </c>
-      <c r="B196" s="110" t="s">
+      <c r="B197" s="105" t="s">
         <v>344</v>
       </c>
-      <c r="C196" s="145" t="s">
+      <c r="C197" s="140" t="s">
         <v>332</v>
       </c>
-      <c r="D196" s="43"/>
-      <c r="E196" s="43"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="45" t="s">
+      <c r="D197" s="43"/>
+      <c r="E197" s="43"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="B197" s="110" t="s">
+      <c r="B198" s="105" t="s">
         <v>346</v>
       </c>
-      <c r="C197" s="143" t="s">
+      <c r="C198" s="138" t="s">
         <v>347</v>
       </c>
-      <c r="D197" s="43"/>
-      <c r="E197" s="47">
+      <c r="D198" s="43"/>
+      <c r="E198" s="47">
         <v>44699</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="122" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="117" t="s">
         <v>348</v>
       </c>
-      <c r="B198" s="110" t="s">
+      <c r="B199" s="105" t="s">
         <v>349</v>
       </c>
-      <c r="C198" s="145" t="s">
+      <c r="C199" s="140" t="s">
         <v>332</v>
       </c>
-      <c r="D198" s="91"/>
-      <c r="E198" s="91"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="4"/>
+      <c r="D199" s="88"/>
+      <c r="E199" s="88"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="45" t="s">
+      <c r="B200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="45" t="s">
         <v>350</v>
       </c>
-      <c r="B200" s="110" t="s">
+      <c r="B201" s="105" t="s">
         <v>351</v>
       </c>
-      <c r="C200" s="90" t="s">
+      <c r="C201" s="87" t="s">
         <v>352</v>
       </c>
-      <c r="D200" s="47">
+      <c r="D201" s="47">
         <v>44670</v>
       </c>
-      <c r="E200" s="47">
+      <c r="E201" s="47">
         <v>44670</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="4"/>
-    </row>
-    <row r="202" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="45" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="4"/>
+    </row>
+    <row r="203" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="B202" s="110" t="s">
+      <c r="B203" s="105" t="s">
         <v>354</v>
       </c>
-      <c r="C202" s="94" t="s">
+      <c r="C203" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="D202" s="47">
+      <c r="D203" s="47">
         <v>44659</v>
       </c>
-      <c r="E202" s="47">
+      <c r="E203" s="47">
         <v>44665</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="4"/>
-    </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="130" t="s">
+      <c r="B204" s="4"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="125" t="s">
         <v>356</v>
       </c>
-      <c r="B204" s="110" t="s">
+      <c r="B205" s="105" t="s">
         <v>357</v>
       </c>
-      <c r="C204" s="41" t="s">
+      <c r="C205" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="D204" s="131">
+      <c r="D205" s="126">
         <v>44668</v>
       </c>
-      <c r="E204" s="132">
+      <c r="E205" s="127">
         <v>44705</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="122" t="s">
+    <row r="206" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A206" s="117" t="s">
         <v>359</v>
       </c>
-      <c r="B205" s="124" t="s">
+      <c r="B206" s="119" t="s">
         <v>360</v>
       </c>
-      <c r="C205" s="144" t="s">
+      <c r="C206" s="139" t="s">
         <v>372</v>
       </c>
-      <c r="D205" s="91"/>
-      <c r="E205" s="43"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="4"/>
-    </row>
-    <row r="207" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="126" t="s">
+      <c r="D206" s="88"/>
+      <c r="E206" s="43"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="4"/>
+    </row>
+    <row r="208" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="121" t="s">
         <v>361</v>
       </c>
-      <c r="B207" s="133" t="s">
+      <c r="B208" s="128" t="s">
         <v>362</v>
       </c>
-      <c r="C207" s="127" t="s">
+      <c r="C208" s="122" t="s">
         <v>371</v>
       </c>
-      <c r="D207" s="128">
+      <c r="D208" s="123">
         <v>44701</v>
       </c>
-      <c r="E207" s="128">
+      <c r="E208" s="123">
         <v>44705</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B208" s="4"/>
-    </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="129" t="s">
+      <c r="B209" s="4"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="124" t="s">
         <v>363</v>
       </c>
-      <c r="B209" s="110" t="s">
+      <c r="B210" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="C209" s="41"/>
-      <c r="D209" s="128">
+      <c r="C210" s="41"/>
+      <c r="D210" s="123">
         <v>44705</v>
       </c>
-      <c r="E209" s="128">
+      <c r="E210" s="123">
         <v>44705</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B210" s="4"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B211" s="4"/>
     </row>
-    <row r="212" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A212" s="60" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="4"/>
+    </row>
+    <row r="213" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="60" t="s">
         <v>365</v>
       </c>
-      <c r="B212" s="110" t="s">
+      <c r="B213" s="105" t="s">
         <v>366</v>
       </c>
-      <c r="C212" s="125" t="s">
+      <c r="C213" s="120" t="s">
         <v>367</v>
       </c>
-      <c r="D212" s="84">
+      <c r="D213" s="81">
         <v>44668</v>
       </c>
-      <c r="E212" s="84">
+      <c r="E213" s="81">
         <v>44668</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A215" s="150">
+    <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A216" s="145">
         <v>9</v>
       </c>
-      <c r="B215" s="151" t="s">
+      <c r="B216" s="146" t="s">
         <v>368</v>
       </c>
-      <c r="C215" s="41"/>
-      <c r="D215" s="132">
+      <c r="C216" s="41"/>
+      <c r="D216" s="127">
         <v>44706</v>
       </c>
-      <c r="E215" s="132">
+      <c r="E216" s="127">
         <v>44707</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="148" t="s">
+    <row r="217" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A217" s="143" t="s">
         <v>369</v>
       </c>
-      <c r="B216" s="57" t="s">
+      <c r="B217" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C216" s="41"/>
-      <c r="D216" s="128">
+      <c r="C217" s="41"/>
+      <c r="D217" s="123">
         <v>44706</v>
       </c>
-      <c r="E216" s="128">
+      <c r="E217" s="123">
         <v>44707</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="148" t="s">
+    <row r="218" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="143" t="s">
         <v>377</v>
       </c>
-      <c r="B217" s="110" t="s">
+      <c r="B218" s="105" t="s">
         <v>373</v>
       </c>
-      <c r="C217" s="146" t="s">
+      <c r="C218" s="141" t="s">
         <v>392</v>
       </c>
-      <c r="D217" s="128">
+      <c r="D218" s="123">
         <v>44706</v>
       </c>
-      <c r="E217" s="128">
+      <c r="E218" s="123">
         <v>44707</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="148" t="s">
+    <row r="219" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="143" t="s">
         <v>378</v>
       </c>
-      <c r="B218" s="110" t="s">
+      <c r="B219" s="105" t="s">
         <v>374</v>
       </c>
-      <c r="C218" s="105" t="s">
+      <c r="C219" s="102" t="s">
         <v>383</v>
       </c>
-      <c r="D218" s="128">
+      <c r="D219" s="123">
         <v>44706</v>
       </c>
-      <c r="E218" s="128">
+      <c r="E219" s="123">
         <v>44707</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="148" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="143" t="s">
         <v>379</v>
       </c>
-      <c r="B219" s="110" t="s">
+      <c r="B220" s="105" t="s">
         <v>375</v>
       </c>
-      <c r="C219" s="105" t="s">
+      <c r="C220" s="102" t="s">
         <v>385</v>
       </c>
-      <c r="D219" s="128">
+      <c r="D220" s="123">
         <v>44706</v>
       </c>
-      <c r="E219" s="128">
+      <c r="E220" s="123">
         <v>44707</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="148" t="s">
+    <row r="221" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="143" t="s">
         <v>380</v>
       </c>
-      <c r="B220" s="110" t="s">
+      <c r="B221" s="105" t="s">
         <v>376</v>
       </c>
-      <c r="C220" s="105" t="s">
+      <c r="C221" s="102" t="s">
         <v>384</v>
       </c>
-      <c r="D220" s="128">
+      <c r="D221" s="123">
         <v>44706</v>
       </c>
-      <c r="E220" s="128">
+      <c r="E221" s="123">
         <v>44707</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="148" t="s">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="143" t="s">
         <v>381</v>
       </c>
-      <c r="B221" s="110" t="s">
+      <c r="B222" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C221" s="105"/>
-      <c r="D221" s="128">
+      <c r="C222" s="102"/>
+      <c r="D222" s="123">
         <v>44706</v>
       </c>
-      <c r="E221" s="128">
+      <c r="E222" s="123">
         <v>44707</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="149" t="s">
+    <row r="223" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="144" t="s">
         <v>382</v>
       </c>
-      <c r="B222" s="110" t="s">
+      <c r="B223" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="C222" s="152" t="s">
+      <c r="C223" s="147" t="s">
         <v>393</v>
       </c>
-      <c r="D222" s="132">
+      <c r="D223" s="127">
         <v>44706</v>
       </c>
-      <c r="E222" s="132">
+      <c r="E223" s="127">
         <v>44707</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="5"/>
-    </row>
     <row r="224" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A224" s="155" t="s">
+      <c r="A224" s="1"/>
+      <c r="B224" s="5"/>
+    </row>
+    <row r="225" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A225" s="150" t="s">
         <v>370</v>
       </c>
-      <c r="B224" s="57" t="s">
+      <c r="B225" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C224" s="41"/>
-      <c r="D224" s="42">
+      <c r="C225" s="41"/>
+      <c r="D225" s="123">
         <v>44707</v>
       </c>
-      <c r="E224" s="43"/>
-    </row>
-    <row r="225" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A225" s="155" t="s">
+      <c r="E225" s="123">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A226" s="150" t="s">
         <v>387</v>
       </c>
-      <c r="B225" s="110" t="s">
+      <c r="B226" s="105" t="s">
+        <v>397</v>
+      </c>
+      <c r="C226" s="102" t="s">
+        <v>399</v>
+      </c>
+      <c r="D226" s="123">
+        <v>44707</v>
+      </c>
+      <c r="E226" s="123">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="150" t="s">
         <v>398</v>
       </c>
-      <c r="C225" s="105" t="s">
-        <v>394</v>
-      </c>
-      <c r="D225" s="42">
-        <v>44707</v>
-      </c>
-      <c r="E225" s="43"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="147"/>
-      <c r="B226" s="110" t="s">
+      <c r="B227" s="105" t="s">
+        <v>400</v>
+      </c>
+      <c r="C227" s="102"/>
+      <c r="D227" s="123">
+        <v>44708</v>
+      </c>
+      <c r="E227" s="123">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="142"/>
+      <c r="B228" s="105" t="s">
         <v>386</v>
-      </c>
-      <c r="C226" s="41"/>
-      <c r="D226" s="43"/>
-      <c r="E226" s="43"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="B227" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="C227" s="41"/>
-      <c r="D227" s="43"/>
-      <c r="E227" s="43"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="147"/>
-      <c r="B228" s="110" t="s">
-        <v>82</v>
       </c>
       <c r="C228" s="41"/>
       <c r="D228" s="43"/>
       <c r="E228" s="43"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="B229" s="110" t="s">
-        <v>83</v>
+      <c r="A229" s="150" t="s">
+        <v>388</v>
+      </c>
+      <c r="B229" s="105" t="s">
+        <v>81</v>
       </c>
       <c r="C229" s="41"/>
-      <c r="D229" s="43"/>
-      <c r="E229" s="43"/>
+      <c r="D229" s="123">
+        <v>44708</v>
+      </c>
+      <c r="E229" s="123">
+        <v>44708</v>
+      </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="147"/>
-      <c r="B230" s="110" t="s">
-        <v>84</v>
+      <c r="A230" s="142"/>
+      <c r="B230" s="105" t="s">
+        <v>82</v>
       </c>
       <c r="C230" s="41"/>
       <c r="D230" s="43"/>
       <c r="E230" s="43"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="B231" s="110" t="s">
-        <v>85</v>
+      <c r="A231" s="150" t="s">
+        <v>389</v>
+      </c>
+      <c r="B231" s="105" t="s">
+        <v>83</v>
       </c>
       <c r="C231" s="41"/>
-      <c r="D231" s="43"/>
-      <c r="E231" s="43"/>
+      <c r="D231" s="123">
+        <v>44708</v>
+      </c>
+      <c r="E231" s="123">
+        <v>44708</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="147"/>
-      <c r="B232" s="110" t="s">
-        <v>86</v>
+      <c r="A232" s="142"/>
+      <c r="B232" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="C232" s="41"/>
       <c r="D232" s="43"/>
       <c r="E232" s="43"/>
     </row>
-    <row r="233" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="B233" s="110" t="s">
-        <v>87</v>
-      </c>
-      <c r="C233" s="90" t="s">
-        <v>395</v>
-      </c>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="150" t="s">
+        <v>390</v>
+      </c>
+      <c r="B233" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="C233" s="41"/>
       <c r="D233" s="43"/>
       <c r="E233" s="43"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="B234" s="41" t="s">
+      <c r="A234" s="142"/>
+      <c r="B234" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="C234" s="41"/>
+      <c r="D234" s="123">
+        <v>44708</v>
+      </c>
+      <c r="E234" s="123">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="150" t="s">
+        <v>391</v>
+      </c>
+      <c r="B235" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="C235" s="87" t="s">
+        <v>394</v>
+      </c>
+      <c r="D235" s="123">
+        <v>44708</v>
+      </c>
+      <c r="E235" s="123">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="150" t="s">
         <v>396</v>
       </c>
-      <c r="C234" s="41"/>
-      <c r="D234" s="43"/>
-      <c r="E234" s="43"/>
+      <c r="B236" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="C236" s="41"/>
+      <c r="D236" s="123">
+        <v>44708</v>
+      </c>
+      <c r="E236" s="123">
+        <v>44708</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:E164"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
